--- a/teaching/traditional_assets/database/data/turkey/turkey_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_heathcare_information_and_technology.xlsx
@@ -641,10 +641,10 @@
         <v>0.2380530973451327</v>
       </c>
       <c r="X2">
-        <v>0.1091446888999075</v>
+        <v>0.1073266815990894</v>
       </c>
       <c r="Y2">
-        <v>0.1289084084452252</v>
+        <v>0.1307264157460434</v>
       </c>
       <c r="Z2">
         <v>0.6726979577212467</v>
@@ -653,10 +653,10 @@
         <v>0.2442760822123058</v>
       </c>
       <c r="AB2">
-        <v>0.1088982299557318</v>
+        <v>0.1070628057085523</v>
       </c>
       <c r="AC2">
-        <v>0.135377852256574</v>
+        <v>0.1372132765037535</v>
       </c>
       <c r="AD2">
         <v>0.378</v>
@@ -766,10 +766,10 @@
         <v>0.2380530973451327</v>
       </c>
       <c r="X3">
-        <v>0.1091446888999075</v>
+        <v>0.1073266815990894</v>
       </c>
       <c r="Y3">
-        <v>0.1289084084452252</v>
+        <v>0.1307264157460434</v>
       </c>
       <c r="Z3">
         <v>0.6726979577212467</v>
@@ -778,10 +778,10 @@
         <v>0.2442760822123058</v>
       </c>
       <c r="AB3">
-        <v>0.1088982299557318</v>
+        <v>0.1070628057085523</v>
       </c>
       <c r="AC3">
-        <v>0.135377852256574</v>
+        <v>0.1372132765037535</v>
       </c>
       <c r="AD3">
         <v>0.378</v>
@@ -1081,37 +1081,37 @@
         <v>0.0053557765876052</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G2">
         <v>70.2</v>
       </c>
       <c r="H2">
-        <v>52.7167717813645</v>
+        <v>47.6413798969915</v>
       </c>
       <c r="I2">
         <v>69.94</v>
       </c>
       <c r="J2">
-        <v>73.2521717813645</v>
+        <v>73.8230198969915</v>
       </c>
       <c r="K2">
         <v>0.378</v>
       </c>
       <c r="L2">
-        <v>21.1734</v>
+        <v>26.81964</v>
       </c>
       <c r="M2">
-        <v>0.108898229955732</v>
+        <v>0.107062805708552</v>
       </c>
       <c r="N2">
-        <v>0.10468869837932</v>
+        <v>0.101920576085845</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.109144688899908</v>
+        <v>0.107326681599089</v>
       </c>
       <c r="T2">
-        <v>0.139827569113315</v>
+        <v>0.153583767880395</v>
       </c>
       <c r="U2">
         <v>0.975415145662882</v>
       </c>
       <c r="V2">
-        <v>1.29603913000986</v>
+        <v>1.43569658962272</v>
       </c>
       <c r="W2">
-        <v>4.528147990393315</v>
+        <v>4.603019557071919</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>70.2</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1087542809200433</v>
+        <v>0.1069166914948111</v>
       </c>
       <c r="C2">
-        <v>70.68630911127923</v>
+        <v>70.68268730247426</v>
       </c>
       <c r="D2">
-        <v>70.04830911127922</v>
+        <v>70.04468730247426</v>
       </c>
       <c r="E2">
         <v>-0.378</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1087542809200433</v>
+        <v>0.1069166914948111</v>
       </c>
       <c r="T2">
         <v>0.9713355364099598</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1431,13 +1431,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1085688415020192</v>
+        <v>0.1067352947735226</v>
       </c>
       <c r="C3">
-        <v>70.12055153114403</v>
+        <v>70.10731052699249</v>
       </c>
       <c r="D3">
-        <v>70.18833153114403</v>
+        <v>70.17509052699249</v>
       </c>
       <c r="E3">
         <v>0.3277800000000001</v>
@@ -1464,37 +1464,37 @@
         <v>2.79</v>
       </c>
       <c r="M3">
-        <v>0.016021206</v>
+        <v>0.011433636</v>
       </c>
       <c r="N3">
-        <v>2.773978794</v>
+        <v>2.778566364</v>
       </c>
       <c r="O3">
-        <v>0.6102753346800001</v>
+        <v>0.61128460008</v>
       </c>
       <c r="P3">
-        <v>2.16370345932</v>
+        <v>2.16728176392</v>
       </c>
       <c r="Q3">
-        <v>1.93370345932</v>
+        <v>1.93728176392</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1094866479818376</v>
+        <v>0.1076857927005278</v>
       </c>
       <c r="T3">
         <v>0.9789884830604625</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>174.1441936393552</v>
+        <v>244.0168639267509</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1083834020839951</v>
+        <v>0.106553898052234</v>
       </c>
       <c r="C4">
-        <v>69.55535486528647</v>
+        <v>69.53242020434907</v>
       </c>
       <c r="D4">
-        <v>70.32891486528646</v>
+        <v>70.30598020434905</v>
       </c>
       <c r="E4">
         <v>1.03356</v>
@@ -1546,37 +1546,37 @@
         <v>2.79</v>
       </c>
       <c r="M4">
-        <v>0.03204241200000001</v>
+        <v>0.022867272</v>
       </c>
       <c r="N4">
-        <v>2.757957588</v>
+        <v>2.767132728</v>
       </c>
       <c r="O4">
-        <v>0.60675066936</v>
+        <v>0.60876920016</v>
       </c>
       <c r="P4">
-        <v>2.15120691864</v>
+        <v>2.15836352784</v>
       </c>
       <c r="Q4">
-        <v>1.92120691864</v>
+        <v>1.92836352784</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1102339613101991</v>
+        <v>0.1084705898492184</v>
       </c>
       <c r="T4">
         <v>0.9867976122956694</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>87.0720968196776</v>
+        <v>122.0084319633754</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1081979626659711</v>
+        <v>0.1063725013309454</v>
       </c>
       <c r="C5">
-        <v>68.99072249091142</v>
+        <v>68.95801906160723</v>
       </c>
       <c r="D5">
-        <v>70.47006249091142</v>
+        <v>70.43735906160722</v>
       </c>
       <c r="E5">
         <v>1.73934</v>
@@ -1628,37 +1628,37 @@
         <v>2.79</v>
       </c>
       <c r="M5">
-        <v>0.048063618</v>
+        <v>0.034300908</v>
       </c>
       <c r="N5">
-        <v>2.741936382</v>
+        <v>2.755699092</v>
       </c>
       <c r="O5">
-        <v>0.60322600404</v>
+        <v>0.60625380024</v>
       </c>
       <c r="P5">
-        <v>2.13871037796</v>
+        <v>2.14944529176</v>
       </c>
       <c r="Q5">
-        <v>1.90871037796</v>
+        <v>1.91944529176</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1109966831607949</v>
+        <v>0.1092715683824179</v>
       </c>
       <c r="T5">
         <v>0.994767754504798</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>58.04806454645174</v>
+        <v>81.33895464225029</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1080125232479469</v>
+        <v>0.1061911046096568</v>
       </c>
       <c r="C6">
-        <v>68.42665781239003</v>
+        <v>68.38410984625229</v>
       </c>
       <c r="D6">
-        <v>70.61177781239003</v>
+        <v>70.56922984625228</v>
       </c>
       <c r="E6">
         <v>2.44512</v>
@@ -1710,37 +1710,37 @@
         <v>2.79</v>
       </c>
       <c r="M6">
-        <v>0.06408482400000001</v>
+        <v>0.045734544</v>
       </c>
       <c r="N6">
-        <v>2.725915176</v>
+        <v>2.744265456</v>
       </c>
       <c r="O6">
-        <v>0.59970133872</v>
+        <v>0.60373840032</v>
       </c>
       <c r="P6">
-        <v>2.12621383728</v>
+        <v>2.14052705568</v>
       </c>
       <c r="Q6">
-        <v>1.89621383728</v>
+        <v>1.91052705568</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1117752950499447</v>
+        <v>0.1100892339683925</v>
       </c>
       <c r="T6">
         <v>1.002903941343283</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>43.5360484098388</v>
+        <v>61.00421598168771</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1078270838299229</v>
+        <v>0.1060097078883682</v>
       </c>
       <c r="C7">
-        <v>67.86316426153334</v>
+        <v>67.81069532638324</v>
       </c>
       <c r="D7">
-        <v>70.75406426153334</v>
+        <v>70.70159532638324</v>
       </c>
       <c r="E7">
         <v>3.1509</v>
@@ -1792,37 +1792,37 @@
         <v>2.79</v>
       </c>
       <c r="M7">
-        <v>0.08010603000000001</v>
+        <v>0.05716818</v>
       </c>
       <c r="N7">
-        <v>2.70989397</v>
+        <v>2.73283182</v>
       </c>
       <c r="O7">
-        <v>0.5961766734</v>
+        <v>0.6012230004</v>
       </c>
       <c r="P7">
-        <v>2.1137172966</v>
+        <v>2.1316088196</v>
       </c>
       <c r="Q7">
-        <v>1.8837172966</v>
+        <v>1.9016088196</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1125702987683399</v>
+        <v>0.1109241135667034</v>
       </c>
       <c r="T7">
         <v>1.011211416325737</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>34.82883872787104</v>
+        <v>48.80337278535017</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1076416444118988</v>
+        <v>0.1058283111670796</v>
       </c>
       <c r="C8">
-        <v>67.30024529786951</v>
+        <v>67.23777829090648</v>
       </c>
       <c r="D8">
-        <v>70.8969252978695</v>
+        <v>70.83445829090647</v>
       </c>
       <c r="E8">
         <v>3.85668</v>
@@ -1874,37 +1874,37 @@
         <v>2.79</v>
       </c>
       <c r="M8">
-        <v>0.096127236</v>
+        <v>0.068601816</v>
       </c>
       <c r="N8">
-        <v>2.693872764</v>
+        <v>2.721398184</v>
       </c>
       <c r="O8">
-        <v>0.59265200808</v>
+        <v>0.5987076004799999</v>
       </c>
       <c r="P8">
-        <v>2.10122075592</v>
+        <v>2.12269058352</v>
       </c>
       <c r="Q8">
-        <v>1.87122075592</v>
+        <v>1.89269058352</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1133822174594668</v>
+        <v>0.111776756560723</v>
       </c>
       <c r="T8">
         <v>1.019695646095051</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>29.02403227322587</v>
+        <v>40.66947732112514</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1923,13 +1923,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1074562049938747</v>
+        <v>0.1056469144457911</v>
       </c>
       <c r="C9">
-        <v>66.73790440892381</v>
+        <v>66.66536154973146</v>
       </c>
       <c r="D9">
-        <v>71.04036440892381</v>
+        <v>70.96782154973145</v>
       </c>
       <c r="E9">
         <v>4.562460000000001</v>
@@ -1956,37 +1956,37 @@
         <v>2.79</v>
       </c>
       <c r="M9">
-        <v>0.112148442</v>
+        <v>0.08003545200000001</v>
       </c>
       <c r="N9">
-        <v>2.677851558</v>
+        <v>2.709964548</v>
       </c>
       <c r="O9">
-        <v>0.58912734276</v>
+        <v>0.59619220056</v>
       </c>
       <c r="P9">
-        <v>2.08872421524</v>
+        <v>2.11377234744</v>
       </c>
       <c r="Q9">
-        <v>1.85872421524</v>
+        <v>1.88377234744</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1142115967676072</v>
+        <v>0.1126477359632162</v>
       </c>
       <c r="T9">
         <v>1.028362332418545</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>24.87774194847931</v>
+        <v>34.85955198953583</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1072707655758506</v>
+        <v>0.1054655177245025</v>
       </c>
       <c r="C10">
-        <v>66.1761451105029</v>
+        <v>66.09344793396906</v>
       </c>
       <c r="D10">
-        <v>71.1843851105029</v>
+        <v>71.10168793396906</v>
       </c>
       <c r="E10">
         <v>5.26824</v>
@@ -2038,37 +2038,37 @@
         <v>2.79</v>
       </c>
       <c r="M10">
-        <v>0.128169648</v>
+        <v>0.091469088</v>
       </c>
       <c r="N10">
-        <v>2.661830352</v>
+        <v>2.698530912</v>
       </c>
       <c r="O10">
-        <v>0.5856026774399999</v>
+        <v>0.5936768006399999</v>
       </c>
       <c r="P10">
-        <v>2.07622767456</v>
+        <v>2.10485411136</v>
       </c>
       <c r="Q10">
-        <v>1.84622767456</v>
+        <v>1.87485411136</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1150590060607072</v>
+        <v>0.1135376497005462</v>
       </c>
       <c r="T10">
         <v>1.037217424966461</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>21.7680242049194</v>
+        <v>30.50210799084385</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1070853261578265</v>
+        <v>0.1052841210032139</v>
       </c>
       <c r="C11">
-        <v>65.61497094698171</v>
+        <v>65.52204029613169</v>
       </c>
       <c r="D11">
-        <v>71.3289909469817</v>
+        <v>71.23606029613168</v>
       </c>
       <c r="E11">
         <v>5.97402</v>
@@ -2120,37 +2120,37 @@
         <v>2.79</v>
       </c>
       <c r="M11">
-        <v>0.144190854</v>
+        <v>0.102902724</v>
       </c>
       <c r="N11">
-        <v>2.645809146</v>
+        <v>2.687097276</v>
       </c>
       <c r="O11">
-        <v>0.58207801212</v>
+        <v>0.59116140072</v>
       </c>
       <c r="P11">
-        <v>2.06373113388</v>
+        <v>2.09593587528</v>
       </c>
       <c r="Q11">
-        <v>1.83373113388</v>
+        <v>1.86593587528</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1159250397338753</v>
+        <v>0.1144471219815537</v>
       </c>
       <c r="T11">
         <v>1.046267134933014</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>19.34935484881725</v>
+        <v>27.1129848807501</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2169,13 +2169,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1068998867398024</v>
+        <v>0.1051027242819253</v>
       </c>
       <c r="C12">
-        <v>65.05438549159445</v>
+        <v>64.95114151033609</v>
       </c>
       <c r="D12">
-        <v>71.47418549159444</v>
+        <v>71.37094151033608</v>
       </c>
       <c r="E12">
         <v>6.6798</v>
@@ -2202,37 +2202,37 @@
         <v>2.79</v>
       </c>
       <c r="M12">
-        <v>0.16021206</v>
+        <v>0.11433636</v>
       </c>
       <c r="N12">
-        <v>2.62978794</v>
+        <v>2.67566364</v>
       </c>
       <c r="O12">
-        <v>0.5785533468</v>
+        <v>0.5886460008000001</v>
       </c>
       <c r="P12">
-        <v>2.0512345932</v>
+        <v>2.0870176392</v>
       </c>
       <c r="Q12">
-        <v>1.8212345932</v>
+        <v>1.8570176392</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1168103185997804</v>
+        <v>0.1153768047576948</v>
       </c>
       <c r="T12">
         <v>1.05551794956549</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>17.41441936393552</v>
+        <v>24.40168639267509</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1067144473217783</v>
+        <v>0.1049213275606367</v>
       </c>
       <c r="C13">
-        <v>64.49439234672865</v>
+        <v>64.38075447250807</v>
       </c>
       <c r="D13">
-        <v>71.61997234672864</v>
+        <v>71.50633447250807</v>
       </c>
       <c r="E13">
         <v>7.38558</v>
@@ -2284,37 +2284,37 @@
         <v>2.79</v>
       </c>
       <c r="M13">
-        <v>0.176233266</v>
+        <v>0.125769996</v>
       </c>
       <c r="N13">
-        <v>2.613766734</v>
+        <v>2.664230004</v>
       </c>
       <c r="O13">
-        <v>0.57502868148</v>
+        <v>0.58613060088</v>
       </c>
       <c r="P13">
-        <v>2.03873805252</v>
+        <v>2.07809940312</v>
       </c>
       <c r="Q13">
-        <v>1.80873805252</v>
+        <v>1.84809940312</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1177154913727846</v>
+        <v>0.1163273792816143</v>
       </c>
       <c r="T13">
         <v>1.064976647672853</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>15.83129033085047</v>
+        <v>22.18335126606826</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1065290079037542</v>
+        <v>0.1047399308393481</v>
       </c>
       <c r="C14">
-        <v>63.93499514422347</v>
+        <v>63.81088210058999</v>
       </c>
       <c r="D14">
-        <v>71.76635514422347</v>
+        <v>71.64224210058998</v>
       </c>
       <c r="E14">
         <v>8.09136</v>
@@ -2366,37 +2366,37 @@
         <v>2.79</v>
       </c>
       <c r="M14">
-        <v>0.192254472</v>
+        <v>0.137203632</v>
       </c>
       <c r="N14">
-        <v>2.597745528</v>
+        <v>2.652796368</v>
       </c>
       <c r="O14">
-        <v>0.57150401616</v>
+        <v>0.5836152009600001</v>
       </c>
       <c r="P14">
-        <v>2.02624151184</v>
+        <v>2.06918116704</v>
       </c>
       <c r="Q14">
-        <v>1.79624151184</v>
+        <v>1.83918116704</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1186412362542661</v>
+        <v>0.1172995577719865</v>
       </c>
       <c r="T14">
         <v>1.074650316191746</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>14.51201613661294</v>
+        <v>20.33473866056258</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2415,13 +2415,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1063435684857301</v>
+        <v>0.1045585341180595</v>
       </c>
       <c r="C15">
-        <v>63.37619754567092</v>
+        <v>63.24152733475016</v>
       </c>
       <c r="D15">
-        <v>71.91333754567091</v>
+        <v>71.77866733475015</v>
       </c>
       <c r="E15">
         <v>8.797140000000001</v>
@@ -2448,37 +2448,37 @@
         <v>2.79</v>
       </c>
       <c r="M15">
-        <v>0.208275678</v>
+        <v>0.148637268</v>
       </c>
       <c r="N15">
-        <v>2.581724322</v>
+        <v>2.641362732</v>
       </c>
       <c r="O15">
-        <v>0.56797935084</v>
+        <v>0.58109980104</v>
       </c>
       <c r="P15">
-        <v>2.01374497116</v>
+        <v>2.06026293096</v>
       </c>
       <c r="Q15">
-        <v>1.78374497116</v>
+        <v>1.83026293096</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.119588262627276</v>
+        <v>0.1182940851931719</v>
       </c>
       <c r="T15">
         <v>1.084546367894983</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>13.39570720302732</v>
+        <v>18.77052799436545</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2497,13 +2497,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.106332849067706</v>
+        <v>0.104377137396771</v>
       </c>
       <c r="C16">
-        <v>62.67893234592958</v>
+        <v>62.67269313759499</v>
       </c>
       <c r="D16">
-        <v>71.92185234592958</v>
+        <v>71.91561313759499</v>
       </c>
       <c r="E16">
         <v>9.502920000000001</v>
@@ -2530,45 +2530,45 @@
         <v>2.79</v>
       </c>
       <c r="M16">
-        <v>0.240106356</v>
+        <v>0.160070904</v>
       </c>
       <c r="N16">
-        <v>2.549893644</v>
+        <v>2.629929096</v>
       </c>
       <c r="O16">
-        <v>0.56097660168</v>
+        <v>0.57858440112</v>
       </c>
       <c r="P16">
-        <v>1.98891704232</v>
+        <v>2.05134469488</v>
       </c>
       <c r="Q16">
-        <v>1.75891704232</v>
+        <v>1.82134469488</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1205573128694256</v>
+        <v>0.119311741159036</v>
       </c>
       <c r="T16">
         <v>1.094672560335504</v>
       </c>
       <c r="U16">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>11.61985066317861</v>
+        <v>17.42977599476792</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2579,13 +2579,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1061598896496819</v>
+        <v>0.1041957406754824</v>
       </c>
       <c r="C17">
-        <v>62.11081919980905</v>
+        <v>62.10438249438337</v>
       </c>
       <c r="D17">
-        <v>72.05951919980905</v>
+        <v>72.05308249438336</v>
       </c>
       <c r="E17">
         <v>10.2087</v>
@@ -2612,45 +2612,45 @@
         <v>2.79</v>
       </c>
       <c r="M17">
-        <v>0.2572568100000001</v>
+        <v>0.17150454</v>
       </c>
       <c r="N17">
-        <v>2.53274319</v>
+        <v>2.61849546</v>
       </c>
       <c r="O17">
-        <v>0.5572035018</v>
+        <v>0.5760690012</v>
       </c>
       <c r="P17">
-        <v>1.9755396882</v>
+        <v>2.0424264588</v>
       </c>
       <c r="Q17">
-        <v>1.7455396882</v>
+        <v>1.8124264588</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1215491642937434</v>
+        <v>0.1203533419711558</v>
       </c>
       <c r="T17">
         <v>1.105037016127566</v>
       </c>
       <c r="U17">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>10.84519395230004</v>
+        <v>16.26779092845005</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2661,13 +2661,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1062614902316578</v>
+        <v>0.1040143439541938</v>
       </c>
       <c r="C18">
-        <v>61.3241065391945</v>
+        <v>61.53659841324378</v>
       </c>
       <c r="D18">
-        <v>71.9785865391945</v>
+        <v>72.19107841324377</v>
       </c>
       <c r="E18">
         <v>10.91448</v>
@@ -2694,45 +2694,45 @@
         <v>2.79</v>
       </c>
       <c r="M18">
-        <v>0.2992507200000001</v>
+        <v>0.182938176</v>
       </c>
       <c r="N18">
-        <v>2.49074928</v>
+        <v>2.607061824</v>
       </c>
       <c r="O18">
-        <v>0.5479648416</v>
+        <v>0.57355360128</v>
       </c>
       <c r="P18">
-        <v>1.9427844384</v>
+        <v>2.03350822272</v>
       </c>
       <c r="Q18">
-        <v>1.7127844384</v>
+        <v>1.80350822272</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1225646312281641</v>
+        <v>0.1214197428026117</v>
       </c>
       <c r="T18">
         <v>1.115648244676583</v>
       </c>
       <c r="U18">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y18">
-        <v>9.323285838710762</v>
+        <v>15.25105399542193</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2743,13 +2743,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1061056908136337</v>
+        <v>0.1038329472329052</v>
       </c>
       <c r="C19">
-        <v>60.74250721697867</v>
+        <v>60.96934392539336</v>
       </c>
       <c r="D19">
-        <v>72.10276721697866</v>
+        <v>72.32960392539336</v>
       </c>
       <c r="E19">
         <v>11.62026</v>
@@ -2776,45 +2776,45 @@
         <v>2.79</v>
       </c>
       <c r="M19">
-        <v>0.3179538900000001</v>
+        <v>0.194371812</v>
       </c>
       <c r="N19">
-        <v>2.47204611</v>
+        <v>2.595628188</v>
       </c>
       <c r="O19">
-        <v>0.5438501442</v>
+        <v>0.5710382013600001</v>
       </c>
       <c r="P19">
-        <v>1.9281959658</v>
+        <v>2.02458998664</v>
       </c>
       <c r="Q19">
-        <v>1.6981959658</v>
+        <v>1.79458998664</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1236045672453418</v>
+        <v>0.1225118400396448</v>
       </c>
       <c r="T19">
         <v>1.126515165479792</v>
       </c>
       <c r="U19">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y19">
-        <v>8.774857259963071</v>
+        <v>14.35393317216181</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1059498913956096</v>
+        <v>0.1038761905116166</v>
       </c>
       <c r="C20">
-        <v>60.16133711940255</v>
+        <v>60.23049250218725</v>
       </c>
       <c r="D20">
-        <v>72.22737711940255</v>
+        <v>72.29653250218725</v>
       </c>
       <c r="E20">
         <v>12.32604</v>
@@ -2858,45 +2858,45 @@
         <v>2.79</v>
       </c>
       <c r="M20">
-        <v>0.3366570600000001</v>
+        <v>0.226131912</v>
       </c>
       <c r="N20">
-        <v>2.45334294</v>
+        <v>2.563868088</v>
       </c>
       <c r="O20">
-        <v>0.5397354468</v>
+        <v>0.56405097936</v>
       </c>
       <c r="P20">
-        <v>1.9136074932</v>
+        <v>1.99981710864</v>
       </c>
       <c r="Q20">
-        <v>1.6836074932</v>
+        <v>1.76981710864</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1246698675556215</v>
+        <v>0.1236305737946544</v>
       </c>
       <c r="T20">
         <v>1.13764713313186</v>
       </c>
       <c r="U20">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y20">
-        <v>8.287365189965122</v>
+        <v>12.33793132213909</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2907,13 +2907,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1057940919775855</v>
+        <v>0.103707273790328</v>
       </c>
       <c r="C21">
-        <v>59.58059847571084</v>
+        <v>59.65406792937526</v>
       </c>
       <c r="D21">
-        <v>72.35241847571083</v>
+        <v>72.42588792937525</v>
       </c>
       <c r="E21">
         <v>13.03182</v>
@@ -2940,45 +2940,45 @@
         <v>2.79</v>
       </c>
       <c r="M21">
-        <v>0.3553602300000001</v>
+        <v>0.238694796</v>
       </c>
       <c r="N21">
-        <v>2.43463977</v>
+        <v>2.551305204</v>
       </c>
       <c r="O21">
-        <v>0.5356207494</v>
+        <v>0.5612871448800001</v>
       </c>
       <c r="P21">
-        <v>1.8990190206</v>
+        <v>1.99001805912</v>
       </c>
       <c r="Q21">
-        <v>1.6690190206</v>
+        <v>1.76001805912</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1257614715772661</v>
+        <v>0.1247769306053433</v>
       </c>
       <c r="T21">
         <v>1.149053964182745</v>
       </c>
       <c r="U21">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y21">
-        <v>7.8511880747038</v>
+        <v>11.68856651571072</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1058098925595615</v>
+        <v>0.1035383570690394</v>
       </c>
       <c r="C22">
-        <v>58.86211753488341</v>
+        <v>59.07810708057802</v>
       </c>
       <c r="D22">
-        <v>72.33971753488341</v>
+        <v>72.55570708057802</v>
       </c>
       <c r="E22">
         <v>13.7376</v>
@@ -3022,45 +3022,45 @@
         <v>2.79</v>
       </c>
       <c r="M22">
-        <v>0.38959056</v>
+        <v>0.25125768</v>
       </c>
       <c r="N22">
-        <v>2.40040944</v>
+        <v>2.53874232</v>
       </c>
       <c r="O22">
-        <v>0.5280900768</v>
+        <v>0.5585233104</v>
       </c>
       <c r="P22">
-        <v>1.8723193632</v>
+        <v>1.9802190096</v>
       </c>
       <c r="Q22">
-        <v>1.6423193632</v>
+        <v>1.7502190096</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1268803656994518</v>
+        <v>0.1259519463362993</v>
       </c>
       <c r="T22">
         <v>1.160745966009902</v>
       </c>
       <c r="U22">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y22">
-        <v>7.161364484806818</v>
+        <v>11.10413818992518</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1056626731415373</v>
+        <v>0.1037298003477509</v>
       </c>
       <c r="C23">
-        <v>58.2748496016093</v>
+        <v>58.22523048181811</v>
       </c>
       <c r="D23">
-        <v>72.45822960160929</v>
+        <v>72.4086104818181</v>
       </c>
       <c r="E23">
         <v>14.44338</v>
@@ -3104,45 +3104,45 @@
         <v>2.79</v>
       </c>
       <c r="M23">
-        <v>0.409070088</v>
+        <v>0.2964276</v>
       </c>
       <c r="N23">
-        <v>2.380929912</v>
+        <v>2.4935724</v>
       </c>
       <c r="O23">
-        <v>0.52380458064</v>
+        <v>0.5485859280000001</v>
       </c>
       <c r="P23">
-        <v>1.85712533136</v>
+        <v>1.944986472</v>
       </c>
       <c r="Q23">
-        <v>1.62712533136</v>
+        <v>1.714986472</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1280275862551105</v>
+        <v>0.1271567093009505</v>
       </c>
       <c r="T23">
         <v>1.172733967883316</v>
       </c>
       <c r="U23">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y23">
-        <v>6.820347128387446</v>
+        <v>9.412079037174678</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1055154537235132</v>
+        <v>0.1035780436264623</v>
       </c>
       <c r="C24">
-        <v>57.68797061531736</v>
+        <v>57.63600459025211</v>
       </c>
       <c r="D24">
-        <v>72.57713061531736</v>
+        <v>72.5251645902521</v>
       </c>
       <c r="E24">
         <v>15.14916</v>
@@ -3186,45 +3186,45 @@
         <v>2.79</v>
       </c>
       <c r="M24">
-        <v>0.428549616</v>
+        <v>0.3105432</v>
       </c>
       <c r="N24">
-        <v>2.361450384</v>
+        <v>2.4794568</v>
       </c>
       <c r="O24">
-        <v>0.5195190844799999</v>
+        <v>0.545480496</v>
       </c>
       <c r="P24">
-        <v>1.84193129952</v>
+        <v>1.933976304</v>
       </c>
       <c r="Q24">
-        <v>1.61193129952</v>
+        <v>1.703976304</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1292042227224529</v>
+        <v>0.1283923636236696</v>
       </c>
       <c r="T24">
         <v>1.185029354420151</v>
       </c>
       <c r="U24">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y24">
-        <v>6.51033134982438</v>
+        <v>8.984257262757646</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1056373343054891</v>
+        <v>0.1034262869051737</v>
       </c>
       <c r="C25">
-        <v>56.88372661940829</v>
+        <v>57.04715453140892</v>
       </c>
       <c r="D25">
-        <v>72.47866661940829</v>
+        <v>72.64209453140892</v>
       </c>
       <c r="E25">
         <v>15.85494</v>
@@ -3268,45 +3268,45 @@
         <v>2.79</v>
       </c>
       <c r="M25">
-        <v>0.4723785540000001</v>
+        <v>0.3246588</v>
       </c>
       <c r="N25">
-        <v>2.317621446</v>
+        <v>2.4653412</v>
       </c>
       <c r="O25">
-        <v>0.50987671812</v>
+        <v>0.542375064</v>
       </c>
       <c r="P25">
-        <v>1.80774472788</v>
+        <v>1.922966136</v>
       </c>
       <c r="Q25">
-        <v>1.57774472788</v>
+        <v>1.692966136</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1304114211759599</v>
+        <v>0.1296601128638619</v>
       </c>
       <c r="T25">
         <v>1.197644101646254</v>
       </c>
       <c r="U25">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y25">
-        <v>5.90627998746954</v>
+        <v>8.593637381768183</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1055018148874651</v>
+        <v>0.1032745301838851</v>
       </c>
       <c r="C26">
-        <v>56.28744570514861</v>
+        <v>56.45868212605238</v>
       </c>
       <c r="D26">
-        <v>72.58816570514861</v>
+        <v>72.75940212605238</v>
       </c>
       <c r="E26">
         <v>16.56072</v>
@@ -3350,45 +3350,45 @@
         <v>2.79</v>
       </c>
       <c r="M26">
-        <v>0.492916752</v>
+        <v>0.3387744</v>
       </c>
       <c r="N26">
-        <v>2.297083248</v>
+        <v>2.4512256</v>
       </c>
       <c r="O26">
-        <v>0.50535831456</v>
+        <v>0.539269632</v>
       </c>
       <c r="P26">
-        <v>1.79172493344</v>
+        <v>1.911955968</v>
       </c>
       <c r="Q26">
-        <v>1.56172493344</v>
+        <v>1.681955968</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1316503880098225</v>
+        <v>0.1309612239261646</v>
       </c>
       <c r="T26">
         <v>1.210590815904624</v>
       </c>
       <c r="U26">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y26">
-        <v>5.660184987991643</v>
+        <v>8.235569157527841</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1053662954694409</v>
+        <v>0.1033372734625965</v>
       </c>
       <c r="C27">
-        <v>55.69149614884667</v>
+        <v>55.70435580736009</v>
       </c>
       <c r="D27">
-        <v>72.69799614884667</v>
+        <v>72.71085580736009</v>
       </c>
       <c r="E27">
         <v>17.2665</v>
@@ -3432,45 +3432,45 @@
         <v>2.79</v>
       </c>
       <c r="M27">
-        <v>0.5134549500000001</v>
+        <v>0.37229895</v>
       </c>
       <c r="N27">
-        <v>2.27654505</v>
+        <v>2.41770105</v>
       </c>
       <c r="O27">
-        <v>0.500839911</v>
+        <v>0.531894231</v>
       </c>
       <c r="P27">
-        <v>1.775705139</v>
+        <v>1.885806819</v>
       </c>
       <c r="Q27">
-        <v>1.545705139</v>
+        <v>1.655806819</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1329223939592546</v>
+        <v>0.132297031283462</v>
       </c>
       <c r="T27">
         <v>1.223882775876549</v>
       </c>
       <c r="U27">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y27">
-        <v>5.433777588471978</v>
+        <v>7.493977622015855</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1052307760514169</v>
+        <v>0.103194096741308</v>
       </c>
       <c r="C28">
-        <v>55.09587945687773</v>
+        <v>55.10945074303646</v>
       </c>
       <c r="D28">
-        <v>72.80815945687772</v>
+        <v>72.82173074303645</v>
       </c>
       <c r="E28">
         <v>17.97228</v>
@@ -3514,45 +3514,45 @@
         <v>2.79</v>
       </c>
       <c r="M28">
-        <v>0.5339931480000001</v>
+        <v>0.3871909080000001</v>
       </c>
       <c r="N28">
-        <v>2.256006852</v>
+        <v>2.402809092</v>
       </c>
       <c r="O28">
-        <v>0.49632150744</v>
+        <v>0.5286180002400001</v>
       </c>
       <c r="P28">
-        <v>1.75968534456</v>
+        <v>1.87419109176</v>
       </c>
       <c r="Q28">
-        <v>1.52968534456</v>
+        <v>1.64419109176</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1342287784478606</v>
+        <v>0.133668941542308</v>
       </c>
       <c r="T28">
         <v>1.237533978009879</v>
       </c>
       <c r="U28">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y28">
-        <v>5.224786142761516</v>
+        <v>7.205747713476784</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1050952566333928</v>
+        <v>0.1030509200200194</v>
       </c>
       <c r="C29">
-        <v>54.50059714476176</v>
+        <v>54.51488433586435</v>
       </c>
       <c r="D29">
-        <v>72.91865714476175</v>
+        <v>72.93294433586435</v>
       </c>
       <c r="E29">
         <v>18.67806</v>
@@ -3596,45 +3596,45 @@
         <v>2.79</v>
       </c>
       <c r="M29">
-        <v>0.5545313460000001</v>
+        <v>0.402082866</v>
       </c>
       <c r="N29">
-        <v>2.235468654</v>
+        <v>2.387917134</v>
       </c>
       <c r="O29">
-        <v>0.49180310388</v>
+        <v>0.52534176948</v>
       </c>
       <c r="P29">
-        <v>1.74366555012</v>
+        <v>1.86257536452</v>
       </c>
       <c r="Q29">
-        <v>1.51366555012</v>
+        <v>1.63257536452</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1355709542923189</v>
+        <v>0.1350784383835882</v>
       </c>
       <c r="T29">
         <v>1.251559185681107</v>
       </c>
       <c r="U29">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y29">
-        <v>5.03127554488146</v>
+        <v>6.938868168533199</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3645,13 +3645,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1049597372153687</v>
+        <v>0.1029077432987308</v>
       </c>
       <c r="C30">
-        <v>53.90565073723285</v>
+        <v>53.92065813981205</v>
       </c>
       <c r="D30">
-        <v>73.02949073723285</v>
+        <v>73.04449813981205</v>
       </c>
       <c r="E30">
         <v>19.38384</v>
@@ -3678,45 +3678,45 @@
         <v>2.79</v>
       </c>
       <c r="M30">
-        <v>0.5750695440000001</v>
+        <v>0.4169748240000001</v>
       </c>
       <c r="N30">
-        <v>2.214930456</v>
+        <v>2.373025176</v>
       </c>
       <c r="O30">
-        <v>0.48728470032</v>
+        <v>0.5220655387200001</v>
       </c>
       <c r="P30">
-        <v>1.72764575568</v>
+        <v>1.85095963728</v>
       </c>
       <c r="Q30">
-        <v>1.49764575568</v>
+        <v>1.62095963728</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1369504127991232</v>
+        <v>0.1365270879149039</v>
       </c>
       <c r="T30">
         <v>1.265973982454314</v>
       </c>
       <c r="U30">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y30">
-        <v>4.851587132564266</v>
+        <v>6.691051448228442</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1048242177973446</v>
+        <v>0.1027645665774422</v>
       </c>
       <c r="C31">
-        <v>53.31104176830929</v>
+        <v>53.32677371836976</v>
       </c>
       <c r="D31">
-        <v>73.14066176830929</v>
+        <v>73.15639371836976</v>
       </c>
       <c r="E31">
         <v>20.08962</v>
@@ -3760,45 +3760,45 @@
         <v>2.79</v>
       </c>
       <c r="M31">
-        <v>0.595607742</v>
+        <v>0.431866782</v>
       </c>
       <c r="N31">
-        <v>2.194392258</v>
+        <v>2.358133218</v>
       </c>
       <c r="O31">
-        <v>0.48276629676</v>
+        <v>0.51878930796</v>
       </c>
       <c r="P31">
-        <v>1.71162596124</v>
+        <v>1.83934391004</v>
       </c>
       <c r="Q31">
-        <v>1.48162596124</v>
+        <v>1.60934391004</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1383687292920346</v>
+        <v>0.1380165444752707</v>
       </c>
       <c r="T31">
         <v>1.280794829840851</v>
       </c>
       <c r="U31">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y31">
-        <v>4.684291024544809</v>
+        <v>6.460325536220565</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3809,13 +3809,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1046886983793205</v>
+        <v>0.1029723898561536</v>
       </c>
       <c r="C32">
-        <v>52.7167717813645</v>
+        <v>52.45868760421379</v>
       </c>
       <c r="D32">
-        <v>73.2521717813645</v>
+        <v>72.99408760421379</v>
       </c>
       <c r="E32">
         <v>20.7954</v>
@@ -3842,37 +3842,37 @@
         <v>2.79</v>
       </c>
       <c r="M32">
-        <v>0.61614594</v>
+        <v>0.47851884</v>
       </c>
       <c r="N32">
-        <v>2.17385406</v>
+        <v>2.31148116</v>
       </c>
       <c r="O32">
-        <v>0.4782478932</v>
+        <v>0.5085258552</v>
       </c>
       <c r="P32">
-        <v>1.6956061668</v>
+        <v>1.8029553048</v>
       </c>
       <c r="Q32">
-        <v>1.4656061668</v>
+        <v>1.5729553048</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.139827569113315</v>
+        <v>0.1395485569373623</v>
       </c>
       <c r="T32">
         <v>1.296039130009861</v>
       </c>
       <c r="U32">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>4.528147990393315</v>
+        <v>5.830491438957764</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3891,13 +3891,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1157001589612964</v>
+        <v>0.102840913134865</v>
       </c>
       <c r="C33">
-        <v>43.93679639968222</v>
+        <v>51.8555046709948</v>
       </c>
       <c r="D33">
-        <v>65.17797639968222</v>
+        <v>73.0966846709948</v>
       </c>
       <c r="E33">
         <v>21.50118</v>
@@ -3924,45 +3924,45 @@
         <v>2.79</v>
       </c>
       <c r="M33">
-        <v>1.645314336</v>
+        <v>0.494469468</v>
       </c>
       <c r="N33">
-        <v>1.144685664</v>
+        <v>2.295530532</v>
       </c>
       <c r="O33">
-        <v>0.2518308460799999</v>
+        <v>0.50501671704</v>
       </c>
       <c r="P33">
-        <v>0.8928548179199999</v>
+        <v>1.79051381496</v>
       </c>
       <c r="Q33">
-        <v>0.6628548179199999</v>
+        <v>1.56051381496</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1413286941468064</v>
+        <v>0.1411249755577754</v>
       </c>
       <c r="T33">
         <v>1.311725293951885</v>
       </c>
       <c r="U33">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y33">
-        <v>1.695724603471759</v>
+        <v>5.642411069959126</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3973,13 +3973,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1159242195432723</v>
+        <v>0.1027094364135764</v>
       </c>
       <c r="C34">
-        <v>43.08515942930344</v>
+        <v>51.25261055497612</v>
       </c>
       <c r="D34">
-        <v>65.03211942930344</v>
+        <v>73.19957055497612</v>
       </c>
       <c r="E34">
         <v>22.20696</v>
@@ -4006,45 +4006,45 @@
         <v>2.79</v>
       </c>
       <c r="M34">
-        <v>1.698388992</v>
+        <v>0.510420096</v>
       </c>
       <c r="N34">
-        <v>1.091611008</v>
+        <v>2.279579904</v>
       </c>
       <c r="O34">
-        <v>0.24015442176</v>
+        <v>0.5015075788800001</v>
       </c>
       <c r="P34">
-        <v>0.8514565862399999</v>
+        <v>1.77807232512</v>
       </c>
       <c r="Q34">
-        <v>0.6214565862399999</v>
+        <v>1.54807232512</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1428739699165769</v>
+        <v>0.1427477594317301</v>
       </c>
       <c r="T34">
         <v>1.32787281565691</v>
       </c>
       <c r="U34">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y34">
-        <v>1.642733209613266</v>
+        <v>5.466085724022903</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1161482801252482</v>
+        <v>0.1025779596922878</v>
       </c>
       <c r="C35">
-        <v>42.23417380636431</v>
+        <v>50.65000647743466</v>
       </c>
       <c r="D35">
-        <v>64.8869138063643</v>
+        <v>73.30274647743465</v>
       </c>
       <c r="E35">
         <v>22.91274</v>
@@ -4088,45 +4088,45 @@
         <v>2.79</v>
       </c>
       <c r="M35">
-        <v>1.751463648</v>
+        <v>0.5263707240000001</v>
       </c>
       <c r="N35">
-        <v>1.038536352</v>
+        <v>2.263629276</v>
       </c>
       <c r="O35">
-        <v>0.2284779974399999</v>
+        <v>0.49799844072</v>
       </c>
       <c r="P35">
-        <v>0.8100583545599997</v>
+        <v>1.76563083528</v>
       </c>
       <c r="Q35">
-        <v>0.5800583545599998</v>
+        <v>1.53563083528</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.144465373321266</v>
+        <v>0.144418984615355</v>
       </c>
       <c r="T35">
         <v>1.344502352935219</v>
       </c>
       <c r="U35">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y35">
-        <v>1.592953415382561</v>
+        <v>5.300446762688876</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1163723407072241</v>
+        <v>0.1024464829709993</v>
       </c>
       <c r="C36">
-        <v>41.38383517754211</v>
+        <v>50.04769366654261</v>
       </c>
       <c r="D36">
-        <v>64.74235517754211</v>
+        <v>73.40621366654261</v>
       </c>
       <c r="E36">
         <v>23.61852</v>
@@ -4170,45 +4170,45 @@
         <v>2.79</v>
       </c>
       <c r="M36">
-        <v>1.804538304</v>
+        <v>0.5423213520000001</v>
       </c>
       <c r="N36">
-        <v>0.9854616959999998</v>
+        <v>2.247678648</v>
       </c>
       <c r="O36">
-        <v>0.21680157312</v>
+        <v>0.49448930256</v>
       </c>
       <c r="P36">
-        <v>0.7686601228799999</v>
+        <v>1.75318934544</v>
       </c>
       <c r="Q36">
-        <v>0.5386601228799999</v>
+        <v>1.52318934544</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1461050010715517</v>
+        <v>0.1461408529863625</v>
       </c>
       <c r="T36">
         <v>1.361635815585598</v>
       </c>
       <c r="U36">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y36">
-        <v>1.546101844341897</v>
+        <v>5.144551269668614</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4219,13 +4219,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1165964012892</v>
+        <v>0.1023150062497107</v>
       </c>
       <c r="C37">
-        <v>40.53413922822214</v>
+        <v>49.44567335741631</v>
       </c>
       <c r="D37">
-        <v>64.59843922822215</v>
+        <v>73.50997335741631</v>
       </c>
       <c r="E37">
         <v>24.3243</v>
@@ -4252,45 +4252,45 @@
         <v>2.79</v>
       </c>
       <c r="M37">
-        <v>1.85761296</v>
+        <v>0.5582719800000001</v>
       </c>
       <c r="N37">
-        <v>0.9323870399999996</v>
+        <v>2.23172802</v>
       </c>
       <c r="O37">
-        <v>0.2051251487999999</v>
+        <v>0.4909801644</v>
       </c>
       <c r="P37">
-        <v>0.7272618911999997</v>
+        <v>1.7407478556</v>
       </c>
       <c r="Q37">
-        <v>0.4972618911999998</v>
+        <v>1.5107478556</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1477950789064616</v>
+        <v>0.1479157019226318</v>
       </c>
       <c r="T37">
         <v>1.379296461702143</v>
       </c>
       <c r="U37">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y37">
-        <v>1.501927505932129</v>
+        <v>4.997564090535225</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1289503755787884</v>
+        <v>0.1021835295284221</v>
       </c>
       <c r="C38">
-        <v>32.7753781551076</v>
+        <v>48.84394679216534</v>
       </c>
       <c r="D38">
-        <v>57.5454581551076</v>
+        <v>73.61402679216533</v>
       </c>
       <c r="E38">
         <v>25.03008</v>
@@ -4334,45 +4334,45 @@
         <v>2.79</v>
       </c>
       <c r="M38">
-        <v>2.93463324</v>
+        <v>0.574222608</v>
       </c>
       <c r="N38">
-        <v>-0.1446332400000001</v>
+        <v>2.215777392</v>
       </c>
       <c r="O38">
-        <v>-0.03181931280000003</v>
+        <v>0.48747102624</v>
       </c>
       <c r="P38">
-        <v>-0.1128139272000001</v>
+        <v>1.72830636576</v>
       </c>
       <c r="Q38">
-        <v>-0.3428139272</v>
+        <v>1.49830636576</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1501049009517779</v>
+        <v>0.1497460148881595</v>
       </c>
       <c r="T38">
-        <v>1.403433190136725</v>
+        <v>1.39750900300983</v>
       </c>
       <c r="U38">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V38">
-        <v>0.209157311937215</v>
+        <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.09134233047125166</v>
+        <v>0.017628</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y38">
-        <v>0.9507150542600683</v>
+        <v>4.858742865798137</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4383,13 +4383,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1299473755787885</v>
+        <v>0.1020520528071335</v>
       </c>
       <c r="C39">
-        <v>31.56697756054962</v>
+        <v>48.24251521994201</v>
       </c>
       <c r="D39">
-        <v>57.04283756054962</v>
+        <v>73.718375219942</v>
       </c>
       <c r="E39">
         <v>25.73586</v>
@@ -4416,45 +4416,45 @@
         <v>2.79</v>
       </c>
       <c r="M39">
-        <v>3.01615083</v>
+        <v>0.590173236</v>
       </c>
       <c r="N39">
-        <v>-0.2261508299999999</v>
+        <v>2.199826764</v>
       </c>
       <c r="O39">
-        <v>-0.04975318259999998</v>
+        <v>0.48396188808</v>
       </c>
       <c r="P39">
-        <v>-0.1763976473999999</v>
+        <v>1.71586487592</v>
       </c>
       <c r="Q39">
-        <v>-0.4063976474</v>
+        <v>1.48586487592</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1522367247764093</v>
+        <v>0.1516344330271961</v>
       </c>
       <c r="T39">
-        <v>1.425709907440482</v>
+        <v>1.416299720232046</v>
       </c>
       <c r="U39">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V39">
-        <v>0.2035044116145876</v>
+        <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.09199524045851512</v>
+        <v>0.017628</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y39">
-        <v>0.92502005279358</v>
+        <v>4.727425491046835</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1309443755787885</v>
+        <v>0.1019205760858449</v>
       </c>
       <c r="C40">
-        <v>30.36728104259558</v>
+        <v>47.64137989699149</v>
       </c>
       <c r="D40">
-        <v>56.54892104259558</v>
+        <v>73.82301989699148</v>
       </c>
       <c r="E40">
         <v>26.44164</v>
@@ -4498,45 +4498,45 @@
         <v>2.79</v>
       </c>
       <c r="M40">
-        <v>3.09766842</v>
+        <v>0.606123864</v>
       </c>
       <c r="N40">
-        <v>-0.3076684199999997</v>
+        <v>2.183876136</v>
       </c>
       <c r="O40">
-        <v>-0.06768705239999993</v>
+        <v>0.4804527499200001</v>
       </c>
       <c r="P40">
-        <v>-0.2399813675999998</v>
+        <v>1.70342338608</v>
       </c>
       <c r="Q40">
-        <v>-0.4699813675999998</v>
+        <v>1.47342338608</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1544373171115127</v>
+        <v>0.153583767880395</v>
       </c>
       <c r="T40">
-        <v>1.448705228528232</v>
+        <v>1.435696589622721</v>
       </c>
       <c r="U40">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V40">
-        <v>0.1981490323615721</v>
+        <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.09261378676223841</v>
+        <v>0.017628</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y40">
-        <v>0.9006774198253279</v>
+        <v>4.603019557071919</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4547,13 +4547,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1319413755787884</v>
+        <v>0.1293144071754369</v>
       </c>
       <c r="C41">
-        <v>29.17606444432471</v>
+        <v>30.08516181062424</v>
       </c>
       <c r="D41">
-        <v>56.06348444432471</v>
+        <v>56.97258181062424</v>
       </c>
       <c r="E41">
         <v>27.14742</v>
@@ -4580,37 +4580,37 @@
         <v>2.79</v>
       </c>
       <c r="M41">
-        <v>3.17918601</v>
+        <v>3.00027078</v>
       </c>
       <c r="N41">
-        <v>-0.38918601</v>
+        <v>-0.2102707800000001</v>
       </c>
       <c r="O41">
-        <v>-0.08562092219999999</v>
+        <v>-0.04625957160000002</v>
       </c>
       <c r="P41">
-        <v>-0.3035650878</v>
+        <v>-0.1640112084000001</v>
       </c>
       <c r="Q41">
-        <v>-0.5335650878</v>
+        <v>-0.3940112084</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1567100600149801</v>
+        <v>0.1565592921406332</v>
       </c>
       <c r="T41">
-        <v>1.472454494569678</v>
+        <v>1.465304563516949</v>
       </c>
       <c r="U41">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V41">
-        <v>0.1930682879420446</v>
+        <v>0.2045815344706987</v>
       </c>
       <c r="W41">
-        <v>0.09320061274269384</v>
+        <v>0.08670061274269383</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.8775831270092938</v>
+        <v>0.929916065775903</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4629,13 +4629,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1329383755787885</v>
+        <v>0.1303114071754368</v>
       </c>
       <c r="C42">
-        <v>27.99311124028453</v>
+        <v>28.90999082186526</v>
       </c>
       <c r="D42">
-        <v>55.58631124028453</v>
+        <v>56.50319082186527</v>
       </c>
       <c r="E42">
         <v>27.8532</v>
@@ -4662,37 +4662,37 @@
         <v>2.79</v>
       </c>
       <c r="M42">
-        <v>3.2607036</v>
+        <v>3.0772008</v>
       </c>
       <c r="N42">
-        <v>-0.4707035999999998</v>
+        <v>-0.2872007999999999</v>
       </c>
       <c r="O42">
-        <v>-0.103554792</v>
+        <v>-0.06318417599999998</v>
       </c>
       <c r="P42">
-        <v>-0.3671488079999998</v>
+        <v>-0.2240166239999999</v>
       </c>
       <c r="Q42">
-        <v>-0.5971488079999998</v>
+        <v>-0.4540166239999999</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1590585610152298</v>
+        <v>0.1590136136763104</v>
       </c>
       <c r="T42">
-        <v>1.496995402812507</v>
+        <v>1.489726306242232</v>
       </c>
       <c r="U42">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V42">
-        <v>0.1882415807434935</v>
+        <v>0.1994669961089312</v>
       </c>
       <c r="W42">
-        <v>0.0937580974241265</v>
+        <v>0.08725809742412649</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.8556435488340615</v>
+        <v>0.9066681641315055</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4711,13 +4711,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1339353755787885</v>
+        <v>0.1313084071754368</v>
       </c>
       <c r="C43">
-        <v>26.81821221446315</v>
+        <v>27.74249115390505</v>
       </c>
       <c r="D43">
-        <v>55.11719221446315</v>
+        <v>56.04147115390505</v>
       </c>
       <c r="E43">
         <v>28.55898</v>
@@ -4744,37 +4744,37 @@
         <v>2.79</v>
       </c>
       <c r="M43">
-        <v>3.34222119</v>
+        <v>3.15413082</v>
       </c>
       <c r="N43">
-        <v>-0.55222119</v>
+        <v>-0.3641308200000002</v>
       </c>
       <c r="O43">
-        <v>-0.1214886618</v>
+        <v>-0.08010878040000004</v>
       </c>
       <c r="P43">
-        <v>-0.4307325282</v>
+        <v>-0.2840220396000002</v>
       </c>
       <c r="Q43">
-        <v>-0.6607325282000001</v>
+        <v>-0.5140220396000001</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1614866722188777</v>
+        <v>0.1615511325521801</v>
       </c>
       <c r="T43">
-        <v>1.522368206250007</v>
+        <v>1.514975904653117</v>
       </c>
       <c r="U43">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V43">
-        <v>0.183650322676579</v>
+        <v>0.1946019474233475</v>
       </c>
       <c r="W43">
-        <v>0.0942883877308551</v>
+        <v>0.08778838773085511</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.8347741939844502</v>
+        <v>0.8845543064697614</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4793,13 +4793,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1349323755787885</v>
+        <v>0.1323054071754369</v>
       </c>
       <c r="C44">
-        <v>25.65116515443146</v>
+        <v>26.58247627087461</v>
       </c>
       <c r="D44">
-        <v>54.65592515443146</v>
+        <v>55.58723627087461</v>
       </c>
       <c r="E44">
         <v>29.26476</v>
@@ -4826,37 +4826,37 @@
         <v>2.79</v>
       </c>
       <c r="M44">
-        <v>3.423738779999999</v>
+        <v>3.23106084</v>
       </c>
       <c r="N44">
-        <v>-0.6337387799999994</v>
+        <v>-0.44106084</v>
       </c>
       <c r="O44">
-        <v>-0.1394225315999999</v>
+        <v>-0.0970333848</v>
       </c>
       <c r="P44">
-        <v>-0.4943162483999995</v>
+        <v>-0.3440274552</v>
       </c>
       <c r="Q44">
-        <v>-0.7243162483999995</v>
+        <v>-0.5740274552</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1639985113950652</v>
+        <v>0.1641761520789418</v>
       </c>
       <c r="T44">
-        <v>1.548615933943972</v>
+        <v>1.541096178871274</v>
       </c>
       <c r="U44">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V44">
-        <v>0.1792776959461843</v>
+        <v>0.1899685677227916</v>
       </c>
       <c r="W44">
-        <v>0.0947934261182157</v>
+        <v>0.08829342611821572</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.8148986179372015</v>
+        <v>0.8634934896490528</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4875,13 +4875,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.150833946147979</v>
+        <v>0.1333024071754369</v>
       </c>
       <c r="C45">
-        <v>18.50911430802403</v>
+        <v>25.42976563602287</v>
       </c>
       <c r="D45">
-        <v>48.21965430802403</v>
+        <v>55.14030563602287</v>
       </c>
       <c r="E45">
         <v>29.97054</v>
@@ -4908,45 +4908,45 @@
         <v>2.79</v>
       </c>
       <c r="M45">
-        <v>4.452130818</v>
+        <v>3.30799086</v>
       </c>
       <c r="N45">
-        <v>-1.662130818</v>
+        <v>-0.5179908599999998</v>
       </c>
       <c r="O45">
-        <v>-0.3656687799599999</v>
+        <v>-0.1139579892</v>
       </c>
       <c r="P45">
-        <v>-1.29646203804</v>
+        <v>-0.4040328707999999</v>
       </c>
       <c r="Q45">
-        <v>-1.52646203804</v>
+        <v>-0.6340328707999998</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1692100125935586</v>
+        <v>0.166893277554011</v>
       </c>
       <c r="T45">
-        <v>1.603074063919653</v>
+        <v>1.568132953939191</v>
       </c>
       <c r="U45">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V45">
-        <v>0.1378665688614543</v>
+        <v>0.1855506940548197</v>
       </c>
       <c r="W45">
-        <v>0.1264749743480247</v>
+        <v>0.08877497434802464</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y45">
-        <v>0.6266662220975198</v>
+        <v>0.8434122457037261</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.152142946147979</v>
+        <v>0.1342994071754369</v>
       </c>
       <c r="C46">
-        <v>17.34038753099972</v>
+        <v>24.28418447247048</v>
       </c>
       <c r="D46">
-        <v>47.75670753099973</v>
+        <v>54.70050447247048</v>
       </c>
       <c r="E46">
         <v>30.67632</v>
@@ -4990,45 +4990,45 @@
         <v>2.79</v>
       </c>
       <c r="M46">
-        <v>4.555668744</v>
+        <v>3.38492088</v>
       </c>
       <c r="N46">
-        <v>-1.765668744</v>
+        <v>-0.5949208800000001</v>
       </c>
       <c r="O46">
-        <v>-0.38844712368</v>
+        <v>-0.1308825936</v>
       </c>
       <c r="P46">
-        <v>-1.37722162032</v>
+        <v>-0.4640382864000001</v>
       </c>
       <c r="Q46">
-        <v>-1.60722162032</v>
+        <v>-0.6940382864000001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1719494771041578</v>
+        <v>0.1697074432246183</v>
       </c>
       <c r="T46">
-        <v>1.631700386489646</v>
+        <v>1.596135328116677</v>
       </c>
       <c r="U46">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V46">
-        <v>0.1347332377509667</v>
+        <v>0.1813336328263011</v>
       </c>
       <c r="W46">
-        <v>0.1269346340219332</v>
+        <v>0.08923463402193318</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y46">
-        <v>0.6124238079589397</v>
+        <v>0.8242437855740958</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5039,13 +5039,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.153451946147979</v>
+        <v>0.1352964071754369</v>
       </c>
       <c r="C47">
-        <v>16.18046553077784</v>
+        <v>23.14556353532284</v>
       </c>
       <c r="D47">
-        <v>47.30256553077785</v>
+        <v>54.26766353532285</v>
       </c>
       <c r="E47">
         <v>31.3821</v>
@@ -5072,45 +5072,45 @@
         <v>2.79</v>
       </c>
       <c r="M47">
-        <v>4.65920667</v>
+        <v>3.4618509</v>
       </c>
       <c r="N47">
-        <v>-1.86920667</v>
+        <v>-0.6718508999999999</v>
       </c>
       <c r="O47">
-        <v>-0.4112254673999999</v>
+        <v>-0.147807198</v>
       </c>
       <c r="P47">
-        <v>-1.4579812026</v>
+        <v>-0.5240437019999999</v>
       </c>
       <c r="Q47">
-        <v>-1.6879812026</v>
+        <v>-0.7540437019999999</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1747885585060516</v>
+        <v>0.1726239421923386</v>
       </c>
       <c r="T47">
-        <v>1.661367666244004</v>
+        <v>1.625155970446071</v>
       </c>
       <c r="U47">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V47">
-        <v>0.1317391658009452</v>
+        <v>0.1773039965412722</v>
       </c>
       <c r="W47">
-        <v>0.1273738643770013</v>
+        <v>0.08967386437700134</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y47">
-        <v>0.5988143900042966</v>
+        <v>0.8059272570057827</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5121,13 +5121,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.154760946147979</v>
+        <v>0.1523786591484581</v>
       </c>
       <c r="C48">
-        <v>15.02909948666836</v>
+        <v>15.96073272498743</v>
       </c>
       <c r="D48">
-        <v>46.85697948666837</v>
+        <v>47.78861272498744</v>
       </c>
       <c r="E48">
         <v>32.08788000000001</v>
@@ -5154,37 +5154,37 @@
         <v>2.79</v>
       </c>
       <c r="M48">
-        <v>4.762744596000001</v>
+        <v>4.551716376000001</v>
       </c>
       <c r="N48">
-        <v>-1.972744596000001</v>
+        <v>-1.761716376000001</v>
       </c>
       <c r="O48">
-        <v>-0.4340038111200002</v>
+        <v>-0.3875776027200002</v>
       </c>
       <c r="P48">
-        <v>-1.538740784880001</v>
+        <v>-1.374138773280001</v>
       </c>
       <c r="Q48">
-        <v>-1.768740784880001</v>
+        <v>-1.604138773280001</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1777327910709785</v>
+        <v>0.1788581855163102</v>
       </c>
       <c r="T48">
-        <v>1.692133734137411</v>
+        <v>1.687189850005715</v>
       </c>
       <c r="U48">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V48">
-        <v>0.128875270892229</v>
+        <v>0.1348502299564194</v>
       </c>
       <c r="W48">
-        <v>0.12779399776011</v>
+        <v>0.12129399776011</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.5857966858737682</v>
+        <v>0.6129555907109971</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5203,13 +5203,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.156069946147979</v>
+        <v>0.1536876591484581</v>
       </c>
       <c r="C49">
-        <v>13.88604986596614</v>
+        <v>14.82170729095286</v>
       </c>
       <c r="D49">
-        <v>46.41970986596615</v>
+        <v>47.35536729095286</v>
       </c>
       <c r="E49">
         <v>32.79366</v>
@@ -5236,37 +5236,37 @@
         <v>2.79</v>
       </c>
       <c r="M49">
-        <v>4.866282522000001</v>
+        <v>4.650666732</v>
       </c>
       <c r="N49">
-        <v>-2.076282522000001</v>
+        <v>-1.860666732</v>
       </c>
       <c r="O49">
-        <v>-0.4567821548400001</v>
+        <v>-0.40934668104</v>
       </c>
       <c r="P49">
-        <v>-1.61950036716</v>
+        <v>-1.45132005096</v>
       </c>
       <c r="Q49">
-        <v>-1.84950036716</v>
+        <v>-1.68132005096</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.180788126751563</v>
+        <v>0.1820573965637877</v>
       </c>
       <c r="T49">
-        <v>1.724060785724909</v>
+        <v>1.71902362076054</v>
       </c>
       <c r="U49">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V49">
-        <v>0.1261332438519688</v>
+        <v>0.1319810761275594</v>
       </c>
       <c r="W49">
-        <v>0.1281962531269162</v>
+        <v>0.1216962531269162</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.5733329265998584</v>
+        <v>0.5999139823979973</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5285,13 +5285,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.157378946147979</v>
+        <v>0.1549966591484581</v>
       </c>
       <c r="C50">
-        <v>12.75108599458007</v>
+        <v>13.69046677493175</v>
       </c>
       <c r="D50">
-        <v>45.99052599458008</v>
+        <v>46.92990677493175</v>
       </c>
       <c r="E50">
         <v>33.49944</v>
@@ -5318,37 +5318,37 @@
         <v>2.79</v>
       </c>
       <c r="M50">
-        <v>4.969820448</v>
+        <v>4.749617088</v>
       </c>
       <c r="N50">
-        <v>-2.179820448</v>
+        <v>-1.959617088</v>
       </c>
       <c r="O50">
-        <v>-0.47956049856</v>
+        <v>-0.43111575936</v>
       </c>
       <c r="P50">
-        <v>-1.70025994944</v>
+        <v>-1.52850132864</v>
       </c>
       <c r="Q50">
-        <v>-1.93025994944</v>
+        <v>-1.75850132864</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1839609753429392</v>
+        <v>0.1853796541900144</v>
       </c>
       <c r="T50">
-        <v>1.757215800835004</v>
+        <v>1.752081767313627</v>
       </c>
       <c r="U50">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V50">
-        <v>0.1235054679383862</v>
+        <v>0.129231470374902</v>
       </c>
       <c r="W50">
-        <v>0.1285817478534387</v>
+        <v>0.1220817478534387</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.5613884906290281</v>
+        <v>0.5874157744313724</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5367,13 +5367,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.158687946147979</v>
+        <v>0.1563056591484581</v>
       </c>
       <c r="C51">
-        <v>11.62398565126322</v>
+        <v>12.56680321640597</v>
       </c>
       <c r="D51">
-        <v>45.56920565126322</v>
+        <v>46.51202321640598</v>
       </c>
       <c r="E51">
         <v>34.20522</v>
@@ -5400,37 +5400,37 @@
         <v>2.79</v>
       </c>
       <c r="M51">
-        <v>5.073358374000001</v>
+        <v>4.848567444</v>
       </c>
       <c r="N51">
-        <v>-2.283358374000001</v>
+        <v>-2.058567444</v>
       </c>
       <c r="O51">
-        <v>-0.5023388422800001</v>
+        <v>-0.4528848376800001</v>
       </c>
       <c r="P51">
-        <v>-1.78101953172</v>
+        <v>-1.60568260632</v>
       </c>
       <c r="Q51">
-        <v>-2.011019531720001</v>
+        <v>-1.83568260632</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1872582493692714</v>
+        <v>0.1888321964290343</v>
       </c>
       <c r="T51">
-        <v>1.791671012616082</v>
+        <v>1.786436311770757</v>
       </c>
       <c r="U51">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V51">
-        <v>0.1209849481845415</v>
+        <v>0.1265940934284754</v>
       </c>
       <c r="W51">
-        <v>0.1289515081013277</v>
+        <v>0.1224515081013277</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.549931582657007</v>
+        <v>0.5754276974021607</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5449,13 +5449,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.159996946147979</v>
+        <v>0.1576146591484581</v>
       </c>
       <c r="C52">
-        <v>10.50453468394406</v>
+        <v>11.45051599655434</v>
       </c>
       <c r="D52">
-        <v>45.15553468394406</v>
+        <v>46.10151599655434</v>
       </c>
       <c r="E52">
         <v>34.911</v>
@@ -5482,37 +5482,37 @@
         <v>2.79</v>
       </c>
       <c r="M52">
-        <v>5.1768963</v>
+        <v>4.9475178</v>
       </c>
       <c r="N52">
-        <v>-2.3868963</v>
+        <v>-2.1575178</v>
       </c>
       <c r="O52">
-        <v>-0.525117186</v>
+        <v>-0.474653916</v>
       </c>
       <c r="P52">
-        <v>-1.861779114</v>
+        <v>-1.682863884</v>
       </c>
       <c r="Q52">
-        <v>-2.091779114</v>
+        <v>-1.912863884</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1906874143566568</v>
+        <v>0.1924228403576149</v>
       </c>
       <c r="T52">
-        <v>1.827504432868404</v>
+        <v>1.822165038006172</v>
       </c>
       <c r="U52">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V52">
-        <v>0.1185652492208507</v>
+        <v>0.1240622115599059</v>
       </c>
       <c r="W52">
-        <v>0.1293064779393012</v>
+        <v>0.1228064779393012</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.538932951003867</v>
+        <v>0.5639191434541175</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5531,13 +5531,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.161305946147979</v>
+        <v>0.1589236591484581</v>
       </c>
       <c r="C53">
-        <v>9.392526646767017</v>
+        <v>10.34141151710411</v>
       </c>
       <c r="D53">
-        <v>44.74930664676702</v>
+        <v>45.69819151710411</v>
       </c>
       <c r="E53">
         <v>35.61678</v>
@@ -5564,37 +5564,37 @@
         <v>2.79</v>
       </c>
       <c r="M53">
-        <v>5.280434226</v>
+        <v>5.046468156</v>
       </c>
       <c r="N53">
-        <v>-2.490434226</v>
+        <v>-2.256468156</v>
       </c>
       <c r="O53">
-        <v>-0.5478955297199999</v>
+        <v>-0.4964229943199999</v>
       </c>
       <c r="P53">
-        <v>-1.94253869628</v>
+        <v>-1.76004516168</v>
       </c>
       <c r="Q53">
-        <v>-2.17253869628</v>
+        <v>-1.99004516168</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1942565452618947</v>
+        <v>0.1961600411812398</v>
       </c>
       <c r="T53">
-        <v>1.864800441702453</v>
+        <v>1.859352079598135</v>
       </c>
       <c r="U53">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V53">
-        <v>0.1162404404125987</v>
+        <v>0.1216296191763783</v>
       </c>
       <c r="W53">
-        <v>0.1296475273914718</v>
+        <v>0.1231475273914718</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.5283656382390853</v>
+        <v>0.5528619053471742</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5613,13 +5613,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.162614946147979</v>
+        <v>0.1602326591484581</v>
       </c>
       <c r="C54">
-        <v>8.287762456549913</v>
+        <v>9.239302895893964</v>
       </c>
       <c r="D54">
-        <v>44.35032245654992</v>
+        <v>45.30186289589397</v>
       </c>
       <c r="E54">
         <v>36.32256</v>
@@ -5646,37 +5646,37 @@
         <v>2.79</v>
       </c>
       <c r="M54">
-        <v>5.383972152</v>
+        <v>5.145418512</v>
       </c>
       <c r="N54">
-        <v>-2.593972152</v>
+        <v>-2.355418512</v>
       </c>
       <c r="O54">
-        <v>-0.57067387344</v>
+        <v>-0.51819207264</v>
       </c>
       <c r="P54">
-        <v>-2.02329827856</v>
+        <v>-1.83722643936</v>
       </c>
       <c r="Q54">
-        <v>-2.25329827856</v>
+        <v>-2.06722643936</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1979743899548508</v>
+        <v>0.2000529587058489</v>
       </c>
       <c r="T54">
-        <v>1.903650450904588</v>
+        <v>1.89808858125643</v>
       </c>
       <c r="U54">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V54">
-        <v>0.1140050473277411</v>
+        <v>0.119290588038371</v>
       </c>
       <c r="W54">
-        <v>0.1299754595570204</v>
+        <v>0.1234754595570204</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.5182047605806412</v>
+        <v>0.5422299456289592</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5695,13 +5695,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.163923946147979</v>
+        <v>0.1615416591484581</v>
       </c>
       <c r="C55">
-        <v>7.190050067457157</v>
+        <v>8.144009678142588</v>
       </c>
       <c r="D55">
-        <v>43.95839006745716</v>
+        <v>44.91234967814259</v>
       </c>
       <c r="E55">
         <v>37.02834</v>
@@ -5728,37 +5728,37 @@
         <v>2.79</v>
       </c>
       <c r="M55">
-        <v>5.487510078</v>
+        <v>5.244368868</v>
       </c>
       <c r="N55">
-        <v>-2.697510078</v>
+        <v>-2.454368868</v>
       </c>
       <c r="O55">
-        <v>-0.59345221716</v>
+        <v>-0.5399611509599999</v>
       </c>
       <c r="P55">
-        <v>-2.10405786084</v>
+        <v>-1.91440771704</v>
       </c>
       <c r="Q55">
-        <v>-2.33405786084</v>
+        <v>-2.14440771704</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.201850440804954</v>
+        <v>0.2041115322953351</v>
       </c>
       <c r="T55">
-        <v>1.944153651987664</v>
+        <v>1.938473444687418</v>
       </c>
       <c r="U55">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V55">
-        <v>0.1118540086989158</v>
+        <v>0.1170398222263263</v>
       </c>
       <c r="W55">
-        <v>0.130291016923869</v>
+        <v>0.1237910169238691</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.508427312267799</v>
+        <v>0.5319991919378468</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5777,13 +5777,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1899832508680873</v>
+        <v>0.1628506591484581</v>
       </c>
       <c r="C56">
-        <v>-0.09228121439243608</v>
+        <v>7.055357562485639</v>
       </c>
       <c r="D56">
-        <v>37.38183878560757</v>
+        <v>44.52947756248565</v>
       </c>
       <c r="E56">
         <v>37.73412</v>
@@ -5810,45 +5810,45 @@
         <v>2.79</v>
       </c>
       <c r="M56">
-        <v>7.248925224000001</v>
+        <v>5.343319224</v>
       </c>
       <c r="N56">
-        <v>-4.458925224000001</v>
+        <v>-2.553319224</v>
       </c>
       <c r="O56">
-        <v>-0.9809635492800003</v>
+        <v>-0.56173022928</v>
       </c>
       <c r="P56">
-        <v>-3.477961674720001</v>
+        <v>-1.99158899472</v>
       </c>
       <c r="Q56">
-        <v>-3.707961674720001</v>
+        <v>-2.22158899472</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2086348084748624</v>
+        <v>0.2083465656061032</v>
       </c>
       <c r="T56">
-        <v>2.015047615607492</v>
+        <v>1.98061417174584</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V56">
-        <v>0.08467462155186938</v>
+        <v>0.1148724181110239</v>
       </c>
       <c r="W56">
-        <v>0.1740948869808345</v>
+        <v>0.1240948869808344</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y56">
-        <v>0.384884643417588</v>
+        <v>0.5221473550501088</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5859,13 +5859,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1917272508680873</v>
+        <v>0.1641596591484581</v>
       </c>
       <c r="C57">
-        <v>-1.168634428720566</v>
+        <v>5.973178140907322</v>
       </c>
       <c r="D57">
-        <v>37.01126557127944</v>
+        <v>44.15307814090733</v>
       </c>
       <c r="E57">
         <v>38.4399</v>
@@ -5892,45 +5892,45 @@
         <v>2.79</v>
       </c>
       <c r="M57">
-        <v>7.383164580000001</v>
+        <v>5.44226958</v>
       </c>
       <c r="N57">
-        <v>-4.593164580000001</v>
+        <v>-2.65226958</v>
       </c>
       <c r="O57">
-        <v>-1.0104962076</v>
+        <v>-0.5834993075999999</v>
       </c>
       <c r="P57">
-        <v>-3.582668372400001</v>
+        <v>-2.0687702724</v>
       </c>
       <c r="Q57">
-        <v>-3.812668372400001</v>
+        <v>-2.2987702724</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2129200264409704</v>
+        <v>0.2127698226195723</v>
       </c>
       <c r="T57">
-        <v>2.059826451509881</v>
+        <v>2.024627820006859</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V57">
-        <v>0.08313508297819902</v>
+        <v>0.1127838286908235</v>
       </c>
       <c r="W57">
-        <v>0.1743877072175465</v>
+        <v>0.1243877072175465</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y57">
-        <v>0.3778867408099955</v>
+        <v>0.5126537667764706</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1934712508680873</v>
+        <v>0.1654686591484581</v>
       </c>
       <c r="C58">
-        <v>-2.237712637299261</v>
+        <v>4.89730865175121</v>
       </c>
       <c r="D58">
-        <v>36.64796736270075</v>
+        <v>43.78298865175122</v>
       </c>
       <c r="E58">
         <v>39.14568000000001</v>
@@ -5974,45 +5974,45 @@
         <v>2.79</v>
       </c>
       <c r="M58">
-        <v>7.517403936000002</v>
+        <v>5.541219936</v>
       </c>
       <c r="N58">
-        <v>-4.727403936000002</v>
+        <v>-2.751219936</v>
       </c>
       <c r="O58">
-        <v>-1.04002886592</v>
+        <v>-0.60526838592</v>
       </c>
       <c r="P58">
-        <v>-3.687375070080002</v>
+        <v>-2.14595155008</v>
       </c>
       <c r="Q58">
-        <v>-3.917375070080002</v>
+        <v>-2.37595155008</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2174000270419016</v>
+        <v>0.217394136770017</v>
       </c>
       <c r="T58">
-        <v>2.106640689044196</v>
+        <v>2.070642088643378</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V58">
-        <v>0.08165052792501688</v>
+        <v>0.1107698317499159</v>
       </c>
       <c r="W58">
-        <v>0.1746700695886618</v>
+        <v>0.1246700695886618</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y58">
-        <v>0.3711387632955313</v>
+        <v>0.5034992352268907</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6023,13 +6023,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1952152508680873</v>
+        <v>0.1930065421220354</v>
       </c>
       <c r="C59">
-        <v>-3.299727989485362</v>
+        <v>-2.371606246974693</v>
       </c>
       <c r="D59">
-        <v>36.29173201051464</v>
+        <v>37.21985375302531</v>
       </c>
       <c r="E59">
         <v>39.85146</v>
@@ -6056,37 +6056,37 @@
         <v>2.79</v>
       </c>
       <c r="M59">
-        <v>7.651643292000001</v>
+        <v>7.390151802000001</v>
       </c>
       <c r="N59">
-        <v>-4.861643292000001</v>
+        <v>-4.600151802000001</v>
       </c>
       <c r="O59">
-        <v>-1.06956152424</v>
+        <v>-1.01203339644</v>
       </c>
       <c r="P59">
-        <v>-3.792081767760001</v>
+        <v>-3.588118405560001</v>
       </c>
       <c r="Q59">
-        <v>-4.022081767760001</v>
+        <v>-3.818118405560001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2220883997638063</v>
+        <v>0.2255681468660113</v>
       </c>
       <c r="T59">
-        <v>2.155632332975457</v>
+        <v>2.151977630338469</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.08021806252282362</v>
+        <v>0.08305648063059909</v>
       </c>
       <c r="W59">
-        <v>0.1749425245081589</v>
+        <v>0.1684425245081589</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.3646275569219255</v>
+        <v>0.377529457411814</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6105,13 +6105,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1969592508680873</v>
+        <v>0.1947505421220355</v>
       </c>
       <c r="C60">
-        <v>-4.354884465282467</v>
+        <v>-3.427406388207615</v>
       </c>
       <c r="D60">
-        <v>35.94235553471754</v>
+        <v>36.86983361179239</v>
       </c>
       <c r="E60">
         <v>40.55724</v>
@@ -6138,37 +6138,37 @@
         <v>2.79</v>
       </c>
       <c r="M60">
-        <v>7.785882648</v>
+        <v>7.519803588</v>
       </c>
       <c r="N60">
-        <v>-4.995882648</v>
+        <v>-4.729803588</v>
       </c>
       <c r="O60">
-        <v>-1.09909418256</v>
+        <v>-1.04055678936</v>
       </c>
       <c r="P60">
-        <v>-3.89678846544</v>
+        <v>-3.68924679864</v>
       </c>
       <c r="Q60">
-        <v>-4.126788465440001</v>
+        <v>-3.91924679864</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2270000283296112</v>
+        <v>0.2307173884580591</v>
       </c>
       <c r="T60">
-        <v>2.206956912332015</v>
+        <v>2.203215192965575</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.07883499247932667</v>
+        <v>0.08162447234386463</v>
       </c>
       <c r="W60">
-        <v>0.1752055844304321</v>
+        <v>0.1687055844304321</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.3583408749060303</v>
+        <v>0.3710203288357483</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6187,13 +6187,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1987032508680873</v>
+        <v>0.1964945421220354</v>
       </c>
       <c r="C61">
-        <v>-5.403378264818784</v>
+        <v>-4.476684596488951</v>
       </c>
       <c r="D61">
-        <v>35.59964173518122</v>
+        <v>36.52633540351105</v>
       </c>
       <c r="E61">
         <v>41.26302</v>
@@ -6220,37 +6220,37 @@
         <v>2.79</v>
       </c>
       <c r="M61">
-        <v>7.920122004</v>
+        <v>7.649455374</v>
       </c>
       <c r="N61">
-        <v>-5.130122004</v>
+        <v>-4.859455373999999</v>
       </c>
       <c r="O61">
-        <v>-1.12862684088</v>
+        <v>-1.06908018228</v>
       </c>
       <c r="P61">
-        <v>-4.00149516312</v>
+        <v>-3.79037519172</v>
       </c>
       <c r="Q61">
-        <v>-4.23149516312</v>
+        <v>-4.020375191719999</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2321512485327724</v>
+        <v>0.2361178125667923</v>
       </c>
       <c r="T61">
-        <v>2.260785129705966</v>
+        <v>2.256952148891564</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.07749880616611775</v>
+        <v>0.08024100671091777</v>
       </c>
       <c r="W61">
-        <v>0.1754597270672044</v>
+        <v>0.1689597270672044</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.3522673007550806</v>
+        <v>0.3647318486859898</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6269,13 +6269,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.2004472508680873</v>
+        <v>0.1982385421220354</v>
       </c>
       <c r="C62">
-        <v>-6.445398175753127</v>
+        <v>-5.519621474213643</v>
       </c>
       <c r="D62">
-        <v>35.26340182424688</v>
+        <v>36.18917852578636</v>
       </c>
       <c r="E62">
         <v>41.9688</v>
@@ -6302,37 +6302,37 @@
         <v>2.79</v>
       </c>
       <c r="M62">
-        <v>8.054361360000001</v>
+        <v>7.779107160000001</v>
       </c>
       <c r="N62">
-        <v>-5.264361360000001</v>
+        <v>-4.989107160000001</v>
       </c>
       <c r="O62">
-        <v>-1.1581594992</v>
+        <v>-1.0976035752</v>
       </c>
       <c r="P62">
-        <v>-4.106201860800001</v>
+        <v>-3.891503584800001</v>
       </c>
       <c r="Q62">
-        <v>-4.336201860800001</v>
+        <v>-4.121503584800001</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2375600297460917</v>
+        <v>0.241788257880962</v>
       </c>
       <c r="T62">
-        <v>2.317304757948615</v>
+        <v>2.313375952613853</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.07620715939668243</v>
+        <v>0.07890365659906914</v>
       </c>
       <c r="W62">
-        <v>0.175705398282751</v>
+        <v>0.169205398282751</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.3463961790758292</v>
+        <v>0.3586529845412233</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6351,13 +6351,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2021912508680873</v>
+        <v>0.1999825421220354</v>
       </c>
       <c r="C63">
-        <v>-7.481125920054772</v>
+        <v>-6.556391016552453</v>
       </c>
       <c r="D63">
-        <v>34.93345407994523</v>
+        <v>35.85818898344755</v>
       </c>
       <c r="E63">
         <v>42.67458</v>
@@ -6384,37 +6384,37 @@
         <v>2.79</v>
       </c>
       <c r="M63">
-        <v>8.188600716</v>
+        <v>7.908758946</v>
       </c>
       <c r="N63">
-        <v>-5.398600716</v>
+        <v>-5.118758946</v>
       </c>
       <c r="O63">
-        <v>-1.18769215752</v>
+        <v>-1.12612696812</v>
       </c>
       <c r="P63">
-        <v>-4.21090855848</v>
+        <v>-3.99263197788</v>
       </c>
       <c r="Q63">
-        <v>-4.44090855848</v>
+        <v>-4.22263197788</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2432461843549659</v>
+        <v>0.2477494952625252</v>
       </c>
       <c r="T63">
-        <v>2.376722828665247</v>
+        <v>2.372693284732157</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.07495786170165487</v>
+        <v>0.07761015403187128</v>
       </c>
       <c r="W63">
-        <v>0.1759430147043453</v>
+        <v>0.1694430147043453</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.3407175531893403</v>
+        <v>0.3527734274175968</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6433,13 +6433,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2039352508680873</v>
+        <v>0.2017265421220354</v>
       </c>
       <c r="C64">
-        <v>-8.510736481495613</v>
+        <v>-7.587160910864817</v>
       </c>
       <c r="D64">
-        <v>34.60962351850439</v>
+        <v>35.53319908913519</v>
       </c>
       <c r="E64">
         <v>43.38036</v>
@@ -6466,37 +6466,37 @@
         <v>2.79</v>
       </c>
       <c r="M64">
-        <v>8.322840072000002</v>
+        <v>8.038410732000001</v>
       </c>
       <c r="N64">
-        <v>-5.532840072000002</v>
+        <v>-5.248410732000001</v>
       </c>
       <c r="O64">
-        <v>-1.21722481584</v>
+        <v>-1.15465036104</v>
       </c>
       <c r="P64">
-        <v>-4.315615256160001</v>
+        <v>-4.09376037096</v>
       </c>
       <c r="Q64">
-        <v>-4.545615256160001</v>
+        <v>-4.323760370960001</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.249231610259044</v>
+        <v>0.2540244819799601</v>
       </c>
       <c r="T64">
-        <v>2.439268166261701</v>
+        <v>2.435132581698793</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.07374886393227331</v>
+        <v>0.07635837735393787</v>
       </c>
       <c r="W64">
-        <v>0.1761729660800816</v>
+        <v>0.1696729660800816</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.3352221087830606</v>
+        <v>0.3470835334269903</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6515,13 +6515,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2056792508680873</v>
+        <v>0.2034705421220354</v>
       </c>
       <c r="C65">
-        <v>-9.534398415094572</v>
+        <v>-8.612092819976255</v>
       </c>
       <c r="D65">
-        <v>34.29174158490543</v>
+        <v>35.21404718002375</v>
       </c>
       <c r="E65">
         <v>44.08614</v>
@@ -6548,37 +6548,37 @@
         <v>2.79</v>
       </c>
       <c r="M65">
-        <v>8.457079428</v>
+        <v>8.168062518000001</v>
       </c>
       <c r="N65">
-        <v>-5.667079428</v>
+        <v>-5.378062518000001</v>
       </c>
       <c r="O65">
-        <v>-1.24675747416</v>
+        <v>-1.18317375396</v>
       </c>
       <c r="P65">
-        <v>-4.42032195384</v>
+        <v>-4.194888764040001</v>
       </c>
       <c r="Q65">
-        <v>-4.650321953840001</v>
+        <v>-4.42488876404</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2555405726984775</v>
+        <v>0.2606386571686076</v>
       </c>
       <c r="T65">
-        <v>2.505194332917422</v>
+        <v>2.50094697579876</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.07257824704445948</v>
+        <v>0.07514633961816108</v>
       </c>
       <c r="W65">
-        <v>0.1763956174121438</v>
+        <v>0.1698956174121438</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.3299011229293612</v>
+        <v>0.3415742709916413</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6597,13 +6597,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2074232508680873</v>
+        <v>0.2052145421220354</v>
       </c>
       <c r="C66">
-        <v>-10.55227413966427</v>
+        <v>-9.631342650325585</v>
       </c>
       <c r="D66">
-        <v>33.97964586033574</v>
+        <v>34.90057734967442</v>
       </c>
       <c r="E66">
         <v>44.79192</v>
@@ -6630,37 +6630,37 @@
         <v>2.79</v>
       </c>
       <c r="M66">
-        <v>8.591318784000002</v>
+        <v>8.297714304000001</v>
       </c>
       <c r="N66">
-        <v>-5.801318784000002</v>
+        <v>-5.507714304000001</v>
       </c>
       <c r="O66">
-        <v>-1.27629013248</v>
+        <v>-1.21169714688</v>
       </c>
       <c r="P66">
-        <v>-4.525028651520001</v>
+        <v>-4.296017157120001</v>
       </c>
       <c r="Q66">
-        <v>-4.755028651520002</v>
+        <v>-4.526017157120002</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.262200033051213</v>
+        <v>0.2676202865344023</v>
       </c>
       <c r="T66">
-        <v>2.574783064387351</v>
+        <v>2.570417725126504</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.07144421193438977</v>
+        <v>0.07397217806162731</v>
       </c>
       <c r="W66">
-        <v>0.1766113108900791</v>
+        <v>0.1701113108900791</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.3247464178835899</v>
+        <v>0.3362371730073969</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6679,13 +6679,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2091672508680873</v>
+        <v>0.2069585421220355</v>
       </c>
       <c r="C67">
-        <v>-11.5645202145264</v>
+        <v>-10.64506080591642</v>
       </c>
       <c r="D67">
-        <v>33.6731797854736</v>
+        <v>34.59263919408358</v>
       </c>
       <c r="E67">
         <v>45.4977</v>
@@ -6712,37 +6712,37 @@
         <v>2.79</v>
       </c>
       <c r="M67">
-        <v>8.72555814</v>
+        <v>8.42736609</v>
       </c>
       <c r="N67">
-        <v>-5.93555814</v>
+        <v>-5.63736609</v>
       </c>
       <c r="O67">
-        <v>-1.3058227908</v>
+        <v>-1.2402205398</v>
       </c>
       <c r="P67">
-        <v>-4.629735349200001</v>
+        <v>-4.397145550199999</v>
       </c>
       <c r="Q67">
-        <v>-4.859735349200001</v>
+        <v>-4.6271455502</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2692400339955334</v>
+        <v>0.275000866149671</v>
       </c>
       <c r="T67">
-        <v>2.648348294798418</v>
+        <v>2.64385823155869</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.07034507021232225</v>
+        <v>0.07283414455298691</v>
       </c>
       <c r="W67">
-        <v>0.1768203676456163</v>
+        <v>0.1703203676456163</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.3197503191469193</v>
+        <v>0.3310642934226677</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6761,13 +6761,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2109112508680873</v>
+        <v>0.2087025421220354</v>
       </c>
       <c r="C68">
-        <v>-12.57128760138689</v>
+        <v>-11.65339242894217</v>
       </c>
       <c r="D68">
-        <v>33.37219239861312</v>
+        <v>34.29008757105784</v>
       </c>
       <c r="E68">
         <v>46.20348000000001</v>
@@ -6794,37 +6794,37 @@
         <v>2.79</v>
       </c>
       <c r="M68">
-        <v>8.859797496000002</v>
+        <v>8.557017876000002</v>
       </c>
       <c r="N68">
-        <v>-6.069797496000002</v>
+        <v>-5.767017876000001</v>
       </c>
       <c r="O68">
-        <v>-1.335355449120001</v>
+        <v>-1.26874393272</v>
       </c>
       <c r="P68">
-        <v>-4.734442046880002</v>
+        <v>-4.498273943280001</v>
       </c>
       <c r="Q68">
-        <v>-4.964442046880002</v>
+        <v>-4.728273943280001</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2766941526424609</v>
+        <v>0.2828155975070142</v>
       </c>
       <c r="T68">
-        <v>2.726240891704254</v>
+        <v>2.721618767781004</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.06927923581516583</v>
+        <v>0.07173059690824467</v>
       </c>
       <c r="W68">
-        <v>0.1770230893479555</v>
+        <v>0.1705230893479555</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.3149056173416629</v>
+        <v>0.3260481677647484</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6843,13 +6843,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2126552508680873</v>
+        <v>0.2104465421220355</v>
       </c>
       <c r="C69">
-        <v>-13.5727219122906</v>
+        <v>-12.6564776278933</v>
       </c>
       <c r="D69">
-        <v>33.07653808770941</v>
+        <v>33.9927823721067</v>
       </c>
       <c r="E69">
         <v>46.90926</v>
@@ -6876,37 +6876,37 @@
         <v>2.79</v>
       </c>
       <c r="M69">
-        <v>8.994036852000001</v>
+        <v>8.686669662</v>
       </c>
       <c r="N69">
-        <v>-6.204036852000001</v>
+        <v>-5.896669662</v>
       </c>
       <c r="O69">
-        <v>-1.36488810744</v>
+        <v>-1.29726732564</v>
       </c>
       <c r="P69">
-        <v>-4.839148744560001</v>
+        <v>-4.59940233636</v>
       </c>
       <c r="Q69">
-        <v>-5.069148744560001</v>
+        <v>-4.829402336359999</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2846000360558688</v>
+        <v>0.2911039489466207</v>
       </c>
       <c r="T69">
-        <v>2.808854252058929</v>
+        <v>2.804092063774368</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.06824521737016338</v>
+        <v>0.07065999098424103</v>
       </c>
       <c r="W69">
-        <v>0.1772197596561949</v>
+        <v>0.1707197596561949</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.3102055335007426</v>
+        <v>0.3211817772010955</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6925,13 +6925,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2143992508680873</v>
+        <v>0.2121905421220354</v>
       </c>
       <c r="C70">
-        <v>-14.56896364451174</v>
+        <v>-13.65445169390006</v>
       </c>
       <c r="D70">
-        <v>32.78607635548827</v>
+        <v>33.70058830609995</v>
       </c>
       <c r="E70">
         <v>47.61504000000001</v>
@@ -6958,37 +6958,37 @@
         <v>2.79</v>
       </c>
       <c r="M70">
-        <v>9.128276208000003</v>
+        <v>8.816321448000002</v>
       </c>
       <c r="N70">
-        <v>-6.338276208000003</v>
+        <v>-6.026321448000002</v>
       </c>
       <c r="O70">
-        <v>-1.394420765760001</v>
+        <v>-1.32579071856</v>
       </c>
       <c r="P70">
-        <v>-4.943855442240002</v>
+        <v>-4.700530729440001</v>
       </c>
       <c r="Q70">
-        <v>-5.173855442240002</v>
+        <v>-4.930530729440001</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2930000371826146</v>
+        <v>0.2999103223512026</v>
       </c>
       <c r="T70">
-        <v>2.89663094743577</v>
+        <v>2.891719940767317</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.06724161123236685</v>
+        <v>0.06962087346976688</v>
       </c>
       <c r="W70">
-        <v>0.1774106455436038</v>
+        <v>0.1709106455436038</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.3056436874198493</v>
+        <v>0.3164585157716676</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7007,13 +7007,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2161432508680873</v>
+        <v>0.2139345421220354</v>
       </c>
       <c r="C71">
-        <v>-15.56014840317576</v>
+        <v>-14.64744530601248</v>
       </c>
       <c r="D71">
-        <v>32.50067159682425</v>
+        <v>33.41337469398753</v>
       </c>
       <c r="E71">
         <v>48.32082</v>
@@ -7040,37 +7040,37 @@
         <v>2.79</v>
       </c>
       <c r="M71">
-        <v>9.262515564000001</v>
+        <v>8.945973234</v>
       </c>
       <c r="N71">
-        <v>-6.472515564000001</v>
+        <v>-6.155973234</v>
       </c>
       <c r="O71">
-        <v>-1.42395342408</v>
+        <v>-1.35431411148</v>
       </c>
       <c r="P71">
-        <v>-5.04856213992</v>
+        <v>-4.80165912252</v>
       </c>
       <c r="Q71">
-        <v>-5.27856213992</v>
+        <v>-5.031659122520001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.3019419738659249</v>
+        <v>0.3092848488786608</v>
       </c>
       <c r="T71">
-        <v>2.990070655417569</v>
+        <v>2.985001229179166</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.06626709512754995</v>
+        <v>0.06861187530353838</v>
       </c>
       <c r="W71">
-        <v>0.17759599850674</v>
+        <v>0.17109599850674</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.3012140687615906</v>
+        <v>0.311872160470629</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7089,13 +7089,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2178872508680873</v>
+        <v>0.2156785421220354</v>
       </c>
       <c r="C72">
-        <v>-16.546407112354</v>
+        <v>-15.63558472607204</v>
       </c>
       <c r="D72">
-        <v>32.22019288764601</v>
+        <v>33.13101527392797</v>
       </c>
       <c r="E72">
         <v>49.02660000000001</v>
@@ -7122,37 +7122,37 @@
         <v>2.79</v>
       </c>
       <c r="M72">
-        <v>9.396754920000003</v>
+        <v>9.075625020000002</v>
       </c>
       <c r="N72">
-        <v>-6.606754920000003</v>
+        <v>-6.285625020000002</v>
       </c>
       <c r="O72">
-        <v>-1.453486082400001</v>
+        <v>-1.382837504400001</v>
       </c>
       <c r="P72">
-        <v>-5.153268837600002</v>
+        <v>-4.902787515600002</v>
       </c>
       <c r="Q72">
-        <v>-5.383268837600003</v>
+        <v>-5.132787515600002</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3114800396614557</v>
+        <v>0.3192843438412828</v>
       </c>
       <c r="T72">
-        <v>3.089739677264822</v>
+        <v>3.084501270151805</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.06532042234001351</v>
+        <v>0.06763170565634496</v>
       </c>
       <c r="W72">
-        <v>0.1777760556709294</v>
+        <v>0.1712760556709294</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.296911010636425</v>
+        <v>0.3074168438924771</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7171,13 +7171,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2196312508680873</v>
+        <v>0.2174225421220354</v>
       </c>
       <c r="C73">
-        <v>-17.52786621532149</v>
+        <v>-16.61899198378566</v>
       </c>
       <c r="D73">
-        <v>31.94451378467851</v>
+        <v>32.85338801621435</v>
       </c>
       <c r="E73">
         <v>49.73238</v>
@@ -7204,37 +7204,37 @@
         <v>2.79</v>
       </c>
       <c r="M73">
-        <v>9.530994275999999</v>
+        <v>9.205276806000001</v>
       </c>
       <c r="N73">
-        <v>-6.740994275999999</v>
+        <v>-6.415276806</v>
       </c>
       <c r="O73">
-        <v>-1.48301874072</v>
+        <v>-1.41136089732</v>
       </c>
       <c r="P73">
-        <v>-5.25797553528</v>
+        <v>-5.003915908680001</v>
       </c>
       <c r="Q73">
-        <v>-5.48797553528</v>
+        <v>-5.23391590868</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3216759030980575</v>
+        <v>0.3299734591461546</v>
       </c>
       <c r="T73">
-        <v>3.196282424756711</v>
+        <v>3.19086338291566</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.06440041639156265</v>
+        <v>0.06667914642174856</v>
       </c>
       <c r="W73">
-        <v>0.1779510408023248</v>
+        <v>0.1714510408023248</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.2927291654161938</v>
+        <v>0.3030870291897663</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7253,13 +7253,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2213752508680873</v>
+        <v>0.2191665421220354</v>
       </c>
       <c r="C74">
-        <v>-18.50464786462133</v>
+        <v>-17.59778505257183</v>
       </c>
       <c r="D74">
-        <v>31.67351213537868</v>
+        <v>32.58037494742818</v>
       </c>
       <c r="E74">
         <v>50.43816</v>
@@ -7286,37 +7286,37 @@
         <v>2.79</v>
       </c>
       <c r="M74">
-        <v>9.665233632000001</v>
+        <v>9.334928592000001</v>
       </c>
       <c r="N74">
-        <v>-6.875233632000001</v>
+        <v>-6.544928592000001</v>
       </c>
       <c r="O74">
-        <v>-1.51255139904</v>
+        <v>-1.43988429024</v>
       </c>
       <c r="P74">
-        <v>-5.362682232960001</v>
+        <v>-5.10504430176</v>
       </c>
       <c r="Q74">
-        <v>-5.592682232960001</v>
+        <v>-5.33504430176</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3326000424944167</v>
+        <v>0.3414260826870886</v>
       </c>
       <c r="T74">
-        <v>3.310435368498022</v>
+        <v>3.304822789448362</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.06350596616390203</v>
+        <v>0.06575304716589095</v>
       </c>
       <c r="W74">
-        <v>0.1781211652356259</v>
+        <v>0.1716211652356258</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.2886634825631911</v>
+        <v>0.2988774871176861</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2231192508680873</v>
+        <v>0.2209105421220354</v>
       </c>
       <c r="C75">
-        <v>-19.47687010253605</v>
+        <v>-18.57207801671114</v>
       </c>
       <c r="D75">
-        <v>31.40706989746395</v>
+        <v>32.31186198328886</v>
       </c>
       <c r="E75">
         <v>51.14394</v>
@@ -7368,37 +7368,37 @@
         <v>2.79</v>
       </c>
       <c r="M75">
-        <v>9.799472988</v>
+        <v>9.464580378000001</v>
       </c>
       <c r="N75">
-        <v>-7.009472988</v>
+        <v>-6.674580378000001</v>
       </c>
       <c r="O75">
-        <v>-1.54208405736</v>
+        <v>-1.46840768316</v>
       </c>
       <c r="P75">
-        <v>-5.46738893064</v>
+        <v>-5.206172694840001</v>
       </c>
       <c r="Q75">
-        <v>-5.697388930640001</v>
+        <v>-5.436172694840002</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3443333774016173</v>
+        <v>0.3537270487125364</v>
       </c>
       <c r="T75">
-        <v>3.433044085849801</v>
+        <v>3.427223633502005</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.06263602142193078</v>
+        <v>0.06485232049238558</v>
       </c>
       <c r="W75">
-        <v>0.1782866287255488</v>
+        <v>0.1717866287255488</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.2847091882815035</v>
+        <v>0.294783274965389</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7417,13 +7417,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2248632508680873</v>
+        <v>0.2226545421220354</v>
       </c>
       <c r="C76">
-        <v>-20.44464703252611</v>
+        <v>-19.54198123029908</v>
       </c>
       <c r="D76">
-        <v>31.1450729674739</v>
+        <v>32.04773876970093</v>
       </c>
       <c r="E76">
         <v>51.84972</v>
@@ -7450,37 +7450,37 @@
         <v>2.79</v>
       </c>
       <c r="M76">
-        <v>9.933712344000002</v>
+        <v>9.594232164000001</v>
       </c>
       <c r="N76">
-        <v>-7.143712344000002</v>
+        <v>-6.804232164000001</v>
       </c>
       <c r="O76">
-        <v>-1.57161671568</v>
+        <v>-1.49693107608</v>
       </c>
       <c r="P76">
-        <v>-5.572095628320001</v>
+        <v>-5.307301087920001</v>
       </c>
       <c r="Q76">
-        <v>-5.802095628320002</v>
+        <v>-5.537301087920001</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3569692765324488</v>
+        <v>0.3669742428937878</v>
       </c>
       <c r="T76">
-        <v>3.56508424299787</v>
+        <v>3.559039927098236</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.06178958870001278</v>
+        <v>0.06397593778302903</v>
       </c>
       <c r="W76">
-        <v>0.1784476202292576</v>
+        <v>0.1719476202292576</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.2808617668182399</v>
+        <v>0.2907997171955865</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7499,13 +7499,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2266072508680873</v>
+        <v>0.2243985421220354</v>
       </c>
       <c r="C77">
-        <v>-21.4080889821583</v>
+        <v>-20.50760146846604</v>
       </c>
       <c r="D77">
-        <v>30.8874110178417</v>
+        <v>31.78789853153396</v>
       </c>
       <c r="E77">
         <v>52.5555</v>
@@ -7532,37 +7532,37 @@
         <v>2.79</v>
       </c>
       <c r="M77">
-        <v>10.0679517</v>
+        <v>9.723883950000001</v>
       </c>
       <c r="N77">
-        <v>-7.2779517</v>
+        <v>-6.933883950000001</v>
       </c>
       <c r="O77">
-        <v>-1.601149374</v>
+        <v>-1.525454469</v>
       </c>
       <c r="P77">
-        <v>-5.676802326</v>
+        <v>-5.408429481000001</v>
       </c>
       <c r="Q77">
-        <v>-5.906802325999999</v>
+        <v>-5.638429481000001</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3706160475937468</v>
+        <v>0.3812812126095393</v>
       </c>
       <c r="T77">
-        <v>3.707687612717785</v>
+        <v>3.701401524182165</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.06096572751734596</v>
+        <v>0.06312292527925531</v>
       </c>
       <c r="W77">
-        <v>0.1786043186262008</v>
+        <v>0.1721043186262008</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.2771169432606634</v>
+        <v>0.2869223876329786</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7581,13 +7581,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2283512508680873</v>
+        <v>0.2261425421220354</v>
       </c>
       <c r="C78">
-        <v>-22.36730265801348</v>
+        <v>-21.46904207130013</v>
       </c>
       <c r="D78">
-        <v>30.63397734198652</v>
+        <v>31.53223792869987</v>
       </c>
       <c r="E78">
         <v>53.26128</v>
@@ -7614,37 +7614,37 @@
         <v>2.79</v>
       </c>
       <c r="M78">
-        <v>10.202191056</v>
+        <v>9.853535736</v>
       </c>
       <c r="N78">
-        <v>-7.412191056</v>
+        <v>-7.063535736</v>
       </c>
       <c r="O78">
-        <v>-1.63068203232</v>
+        <v>-1.55397786192</v>
       </c>
       <c r="P78">
-        <v>-5.78150902368</v>
+        <v>-5.50955787408</v>
       </c>
       <c r="Q78">
-        <v>-6.01150902368</v>
+        <v>-5.739557874079999</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3854000495768196</v>
+        <v>0.3967804298016035</v>
       </c>
       <c r="T78">
-        <v>3.862174596581027</v>
+        <v>3.855626587689756</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.06016354689211772</v>
+        <v>0.06229236047294932</v>
       </c>
       <c r="W78">
-        <v>0.1787568933811192</v>
+        <v>0.1722568933811192</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.2734706676914441</v>
+        <v>0.2831470930588605</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7663,13 +7663,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2300952508680873</v>
+        <v>0.2278865421220354</v>
       </c>
       <c r="C79">
-        <v>-23.3223912930299</v>
+        <v>-22.42640308088009</v>
       </c>
       <c r="D79">
-        <v>30.3846687069701</v>
+        <v>31.28065691911991</v>
       </c>
       <c r="E79">
         <v>53.96706</v>
@@ -7696,37 +7696,37 @@
         <v>2.79</v>
       </c>
       <c r="M79">
-        <v>10.336430412</v>
+        <v>9.983187522000001</v>
       </c>
       <c r="N79">
-        <v>-7.546430412</v>
+        <v>-7.193187522000001</v>
       </c>
       <c r="O79">
-        <v>-1.66021469064</v>
+        <v>-1.58250125484</v>
       </c>
       <c r="P79">
-        <v>-5.88621572136</v>
+        <v>-5.610686267160001</v>
       </c>
       <c r="Q79">
-        <v>-6.11621572136</v>
+        <v>-5.840686267160001</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.4014696169497248</v>
+        <v>0.4136274050103689</v>
       </c>
       <c r="T79">
-        <v>4.030095231214984</v>
+        <v>4.023262526284963</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.05938220212728502</v>
+        <v>0.06148336877849542</v>
       </c>
       <c r="W79">
-        <v>0.1789055051553904</v>
+        <v>0.1724055051553904</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.2699191005785683</v>
+        <v>0.2794698580840701</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7745,13 +7745,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2318392508680873</v>
+        <v>0.2296305421220354</v>
       </c>
       <c r="C80">
-        <v>-24.27345478671</v>
+        <v>-23.37978137180032</v>
       </c>
       <c r="D80">
-        <v>30.13938521329</v>
+        <v>31.03305862819968</v>
       </c>
       <c r="E80">
         <v>54.67284</v>
@@ -7778,37 +7778,37 @@
         <v>2.79</v>
       </c>
       <c r="M80">
-        <v>10.470669768</v>
+        <v>10.112839308</v>
       </c>
       <c r="N80">
-        <v>-7.680669768</v>
+        <v>-7.322839308</v>
       </c>
       <c r="O80">
-        <v>-1.68974734896</v>
+        <v>-1.61102464776</v>
       </c>
       <c r="P80">
-        <v>-5.99092241904</v>
+        <v>-5.71181466024</v>
       </c>
       <c r="Q80">
-        <v>-6.220922419040001</v>
+        <v>-5.94181466024</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4190000540838032</v>
+        <v>0.4320059234199311</v>
       </c>
       <c r="T80">
-        <v>4.213281378088393</v>
+        <v>4.206138095661553</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.05862089184360188</v>
+        <v>0.06069512046082241</v>
       </c>
       <c r="W80">
-        <v>0.1790503063713469</v>
+        <v>0.1725503063713469</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.2664585992890994</v>
+        <v>0.2758869111855564</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7827,13 +7827,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2335832508680873</v>
+        <v>0.2313745421220354</v>
       </c>
       <c r="C81">
-        <v>-25.22058983859053</v>
+        <v>-24.32927077554566</v>
       </c>
       <c r="D81">
-        <v>29.89803016140947</v>
+        <v>30.78934922445434</v>
       </c>
       <c r="E81">
         <v>55.37862000000001</v>
@@ -7860,37 +7860,37 @@
         <v>2.79</v>
       </c>
       <c r="M81">
-        <v>10.604909124</v>
+        <v>10.242491094</v>
       </c>
       <c r="N81">
-        <v>-7.814909124000001</v>
+        <v>-7.452491094000002</v>
       </c>
       <c r="O81">
-        <v>-1.71928000728</v>
+        <v>-1.63954804068</v>
       </c>
       <c r="P81">
-        <v>-6.095629116720001</v>
+        <v>-5.812943053320001</v>
       </c>
       <c r="Q81">
-        <v>-6.32562911672</v>
+        <v>-6.042943053320002</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4382000566592223</v>
+        <v>0.4521347769161183</v>
       </c>
       <c r="T81">
-        <v>4.41391382466403</v>
+        <v>4.40643038593115</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.05787885523798666</v>
+        <v>0.05992682779676136</v>
       </c>
       <c r="W81">
-        <v>0.1791914417337349</v>
+        <v>0.1726914417337349</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.2630857056272121</v>
+        <v>0.2723946718034608</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7909,13 +7909,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2353272508680873</v>
+        <v>0.2331185421220354</v>
       </c>
       <c r="C82">
-        <v>-26.1638900753507</v>
+        <v>-25.27496219905127</v>
       </c>
       <c r="D82">
-        <v>29.6605099246493</v>
+        <v>30.54943780094873</v>
       </c>
       <c r="E82">
         <v>56.0844</v>
@@ -7942,37 +7942,37 @@
         <v>2.79</v>
       </c>
       <c r="M82">
-        <v>10.73914848</v>
+        <v>10.37214288</v>
       </c>
       <c r="N82">
-        <v>-7.949148480000001</v>
+        <v>-7.58214288</v>
       </c>
       <c r="O82">
-        <v>-1.7488126656</v>
+        <v>-1.6680714336</v>
       </c>
       <c r="P82">
-        <v>-6.200335814400001</v>
+        <v>-5.9140714464</v>
       </c>
       <c r="Q82">
-        <v>-6.430335814400001</v>
+        <v>-6.1440714464</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4593200594921836</v>
+        <v>0.4742765157619242</v>
       </c>
       <c r="T82">
-        <v>4.634609515897233</v>
+        <v>4.626751905227708</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.05715536954751183</v>
+        <v>0.05917774244930185</v>
       </c>
       <c r="W82">
-        <v>0.1793290487120633</v>
+        <v>0.1728290487120633</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.2597971343068719</v>
+        <v>0.2689897384059176</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2370712508680873</v>
+        <v>0.2348625421220354</v>
       </c>
       <c r="C83">
-        <v>-27.10344617190935</v>
+        <v>-26.21694373776256</v>
       </c>
       <c r="D83">
-        <v>29.42673382809065</v>
+        <v>30.31323626223744</v>
       </c>
       <c r="E83">
         <v>56.79018000000001</v>
@@ -8024,37 +8024,37 @@
         <v>2.79</v>
       </c>
       <c r="M83">
-        <v>10.873387836</v>
+        <v>10.501794666</v>
       </c>
       <c r="N83">
-        <v>-8.083387836</v>
+        <v>-7.711794666000002</v>
       </c>
       <c r="O83">
-        <v>-1.77834532392</v>
+        <v>-1.69659482652</v>
       </c>
       <c r="P83">
-        <v>-6.30504251208</v>
+        <v>-6.015199839480002</v>
       </c>
       <c r="Q83">
-        <v>-6.53504251208</v>
+        <v>-6.245199839480001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.482663220518088</v>
+        <v>0.4987489639599203</v>
       </c>
       <c r="T83">
-        <v>4.878536332523403</v>
+        <v>4.870265163397588</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.05644974770124625</v>
+        <v>0.0584471530363475</v>
       </c>
       <c r="W83">
-        <v>0.179463257987223</v>
+        <v>0.172963257987223</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.2565897622783921</v>
+        <v>0.2656688774379432</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2388152508680873</v>
+        <v>0.2366065421220354</v>
       </c>
       <c r="C84">
-        <v>-28.03934596684008</v>
+        <v>-27.15530078349035</v>
       </c>
       <c r="D84">
-        <v>29.19661403315992</v>
+        <v>30.08065921650965</v>
       </c>
       <c r="E84">
         <v>57.49596</v>
@@ -8106,37 +8106,37 @@
         <v>2.79</v>
       </c>
       <c r="M84">
-        <v>11.007627192</v>
+        <v>10.631446452</v>
       </c>
       <c r="N84">
-        <v>-8.217627192000002</v>
+        <v>-7.841446452</v>
       </c>
       <c r="O84">
-        <v>-1.80787798224</v>
+        <v>-1.72511821944</v>
       </c>
       <c r="P84">
-        <v>-6.409749209760001</v>
+        <v>-6.116328232560001</v>
       </c>
       <c r="Q84">
-        <v>-6.639749209760001</v>
+        <v>-6.346328232560001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.5086000661024263</v>
+        <v>0.5259405730688047</v>
       </c>
       <c r="T84">
-        <v>5.149566128774703</v>
+        <v>5.140835450253009</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.05576133614391399</v>
+        <v>0.05773438287736766</v>
       </c>
       <c r="W84">
-        <v>0.1795941938654276</v>
+        <v>0.1730941938654276</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.2534606188359726</v>
+        <v>0.262429013078944</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8155,13 +8155,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2405592508680873</v>
+        <v>0.2383505421220355</v>
       </c>
       <c r="C85">
-        <v>-28.97167457241323</v>
+        <v>-28.0901161273388</v>
       </c>
       <c r="D85">
-        <v>28.97006542758678</v>
+        <v>29.8516238726612</v>
       </c>
       <c r="E85">
         <v>58.20174000000001</v>
@@ -8188,37 +8188,37 @@
         <v>2.79</v>
       </c>
       <c r="M85">
-        <v>11.141866548</v>
+        <v>10.761098238</v>
       </c>
       <c r="N85">
-        <v>-8.351866548</v>
+        <v>-7.971098238000002</v>
       </c>
       <c r="O85">
-        <v>-1.83741064056</v>
+        <v>-1.75364161236</v>
       </c>
       <c r="P85">
-        <v>-6.51445590744</v>
+        <v>-6.217456625640002</v>
       </c>
       <c r="Q85">
-        <v>-6.744455907440001</v>
+        <v>-6.447456625640003</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.537588305284922</v>
+        <v>0.5563311950140286</v>
       </c>
       <c r="T85">
-        <v>5.45248178340851</v>
+        <v>5.443237535562011</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.05508951281687888</v>
+        <v>0.05703878790294153</v>
       </c>
       <c r="W85">
-        <v>0.1797219746622296</v>
+        <v>0.1732219746622297</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.2504068764403586</v>
+        <v>0.2592672177406433</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2423032508680873</v>
+        <v>0.2400945421220354</v>
       </c>
       <c r="C86">
-        <v>-29.90051447955397</v>
+        <v>-29.02147005796663</v>
       </c>
       <c r="D86">
-        <v>28.74700552044603</v>
+        <v>29.62604994203337</v>
       </c>
       <c r="E86">
         <v>58.90752</v>
@@ -8270,37 +8270,37 @@
         <v>2.79</v>
       </c>
       <c r="M86">
-        <v>11.276105904</v>
+        <v>10.890750024</v>
       </c>
       <c r="N86">
-        <v>-8.486105903999999</v>
+        <v>-8.100750024</v>
       </c>
       <c r="O86">
-        <v>-1.86694329888</v>
+        <v>-1.78216500528</v>
       </c>
       <c r="P86">
-        <v>-6.619162605119999</v>
+        <v>-6.31858501872</v>
       </c>
       <c r="Q86">
-        <v>-6.849162605119998</v>
+        <v>-6.548585018720001</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5702000743652293</v>
+        <v>0.5905206447024051</v>
       </c>
       <c r="T86">
-        <v>5.793261894871539</v>
+        <v>5.783439881534632</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.05443368528334461</v>
+        <v>0.05635975471362082</v>
       </c>
       <c r="W86">
-        <v>0.1798467130591079</v>
+        <v>0.1733467130591078</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.247425842197021</v>
+        <v>0.2561807032437309</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8319,13 +8319,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2440472508680873</v>
+        <v>0.2418385421220354</v>
       </c>
       <c r="C87">
-        <v>-30.82594565798867</v>
+        <v>-29.94944045542681</v>
       </c>
       <c r="D87">
-        <v>28.52735434201133</v>
+        <v>29.40385954457319</v>
       </c>
       <c r="E87">
         <v>59.6133</v>
@@ -8352,37 +8352,37 @@
         <v>2.79</v>
       </c>
       <c r="M87">
-        <v>11.41034526</v>
+        <v>11.02040181</v>
       </c>
       <c r="N87">
-        <v>-8.620345260000001</v>
+        <v>-8.23040181</v>
       </c>
       <c r="O87">
-        <v>-1.8964759572</v>
+        <v>-1.8106883982</v>
       </c>
       <c r="P87">
-        <v>-6.723869302800001</v>
+        <v>-6.4197134118</v>
       </c>
       <c r="Q87">
-        <v>-6.953869302800001</v>
+        <v>-6.649713411800001</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.6071600793229113</v>
+        <v>0.6292686876825655</v>
       </c>
       <c r="T87">
-        <v>6.179479354529642</v>
+        <v>6.169002540303609</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.05379328898589348</v>
+        <v>0.05569669877581351</v>
       </c>
       <c r="W87">
-        <v>0.1799685164348831</v>
+        <v>0.1734685164348831</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.2445149499358795</v>
+        <v>0.2531668126173342</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8401,13 +8401,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2457912508680873</v>
+        <v>0.2435825421220354</v>
       </c>
       <c r="C88">
-        <v>-31.74804565183488</v>
+        <v>-30.8741028808148</v>
       </c>
       <c r="D88">
-        <v>28.31103434816512</v>
+        <v>29.18497711918519</v>
       </c>
       <c r="E88">
         <v>60.31908</v>
@@ -8434,37 +8434,37 @@
         <v>2.79</v>
       </c>
       <c r="M88">
-        <v>11.544584616</v>
+        <v>11.150053596</v>
       </c>
       <c r="N88">
-        <v>-8.754584615999999</v>
+        <v>-8.360053596</v>
       </c>
       <c r="O88">
-        <v>-1.92600861552</v>
+        <v>-1.83921179112</v>
       </c>
       <c r="P88">
-        <v>-6.828576000479999</v>
+        <v>-6.52084180488</v>
       </c>
       <c r="Q88">
-        <v>-7.058576000479999</v>
+        <v>-6.75084180488</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6494000849888334</v>
+        <v>0.6735521653741773</v>
       </c>
       <c r="T88">
-        <v>6.620870736996044</v>
+        <v>6.609645578896724</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.05316778562559241</v>
+        <v>0.05504906274353661</v>
       </c>
       <c r="W88">
-        <v>0.1800874871740123</v>
+        <v>0.1735874871740123</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.2416717528436019</v>
+        <v>0.2502230124706208</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8483,13 +8483,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2475352508680873</v>
+        <v>0.2453265421220354</v>
       </c>
       <c r="C89">
-        <v>-32.66688967087489</v>
+        <v>-31.79553066194251</v>
       </c>
       <c r="D89">
-        <v>28.09797032912511</v>
+        <v>28.96932933805749</v>
       </c>
       <c r="E89">
         <v>61.02486</v>
@@ -8516,37 +8516,37 @@
         <v>2.79</v>
       </c>
       <c r="M89">
-        <v>11.678823972</v>
+        <v>11.279705382</v>
       </c>
       <c r="N89">
-        <v>-8.888823972000001</v>
+        <v>-8.489705382</v>
       </c>
       <c r="O89">
-        <v>-1.95554127384</v>
+        <v>-1.86773518404</v>
       </c>
       <c r="P89">
-        <v>-6.933282698160001</v>
+        <v>-6.621970197960001</v>
       </c>
       <c r="Q89">
-        <v>-7.163282698160002</v>
+        <v>-6.85197019796</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6981385530648977</v>
+        <v>0.7246484857875757</v>
       </c>
       <c r="T89">
-        <v>7.130168485995741</v>
+        <v>7.118079854196472</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.05255666165288444</v>
+        <v>0.05441631489590975</v>
       </c>
       <c r="W89">
-        <v>0.1802037229536214</v>
+        <v>0.1737037229536214</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.2388939166040203</v>
+        <v>0.2473468858904989</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8565,13 +8565,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2492792508680873</v>
+        <v>0.2470705421220354</v>
       </c>
       <c r="C90">
-        <v>-33.58255067773867</v>
+        <v>-32.71379497524168</v>
       </c>
       <c r="D90">
-        <v>27.88808932226133</v>
+        <v>28.75684502475832</v>
       </c>
       <c r="E90">
         <v>61.73064</v>
@@ -8598,37 +8598,37 @@
         <v>2.79</v>
       </c>
       <c r="M90">
-        <v>11.813063328</v>
+        <v>11.409357168</v>
       </c>
       <c r="N90">
-        <v>-9.023063327999999</v>
+        <v>-8.619357168000001</v>
       </c>
       <c r="O90">
-        <v>-1.98507393216</v>
+        <v>-1.89625857696</v>
       </c>
       <c r="P90">
-        <v>-7.037989395839999</v>
+        <v>-6.72309859104</v>
       </c>
       <c r="Q90">
-        <v>-7.267989395839999</v>
+        <v>-6.95309859104</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7550000991536392</v>
+        <v>0.784260859603207</v>
       </c>
       <c r="T90">
-        <v>7.724349193162054</v>
+        <v>7.711253175379512</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.0519594268613744</v>
+        <v>0.05379794768118351</v>
       </c>
       <c r="W90">
-        <v>0.1803173170109666</v>
+        <v>0.1738173170109666</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.2361792130062473</v>
+        <v>0.2445361258235613</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8647,13 +8647,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2510232508680873</v>
+        <v>0.2488145421220355</v>
       </c>
       <c r="C91">
-        <v>-34.49509947120841</v>
+        <v>-33.62896492408924</v>
       </c>
       <c r="D91">
-        <v>27.68132052879159</v>
+        <v>28.54745507591077</v>
       </c>
       <c r="E91">
         <v>62.43642000000001</v>
@@ -8680,37 +8680,37 @@
         <v>2.79</v>
       </c>
       <c r="M91">
-        <v>11.947302684</v>
+        <v>11.539008954</v>
       </c>
       <c r="N91">
-        <v>-9.157302684000001</v>
+        <v>-8.749008954000001</v>
       </c>
       <c r="O91">
-        <v>-2.01460659048</v>
+        <v>-1.92478196988</v>
       </c>
       <c r="P91">
-        <v>-7.142696093520001</v>
+        <v>-6.824226984120001</v>
       </c>
       <c r="Q91">
-        <v>-7.372696093520002</v>
+        <v>-7.054226984120001</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8222001081676062</v>
+        <v>0.8547118468398622</v>
       </c>
       <c r="T91">
-        <v>8.426562756176784</v>
+        <v>8.412276191323105</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.05137561307641512</v>
+        <v>0.05319347635892301</v>
       </c>
       <c r="W91">
-        <v>0.1804283583928659</v>
+        <v>0.1739283583928659</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.2335255139837051</v>
+        <v>0.2417885289041956</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8729,13 +8729,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2527672508680873</v>
+        <v>0.2505585421220354</v>
       </c>
       <c r="C92">
-        <v>-35.40460476584453</v>
+        <v>-34.54110761373528</v>
       </c>
       <c r="D92">
-        <v>27.47759523415547</v>
+        <v>28.34109238626472</v>
       </c>
       <c r="E92">
         <v>63.1422</v>
@@ -8762,37 +8762,37 @@
         <v>2.79</v>
       </c>
       <c r="M92">
-        <v>12.08154204</v>
+        <v>11.66866074</v>
       </c>
       <c r="N92">
-        <v>-9.29154204</v>
+        <v>-8.878660740000001</v>
       </c>
       <c r="O92">
-        <v>-2.0441392488</v>
+        <v>-1.9533053628</v>
       </c>
       <c r="P92">
-        <v>-7.247402791199999</v>
+        <v>-6.925355377200001</v>
       </c>
       <c r="Q92">
-        <v>-7.477402791199999</v>
+        <v>-7.155355377200001</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.9028401189843672</v>
+        <v>0.9392530315238484</v>
       </c>
       <c r="T92">
-        <v>9.269219031794465</v>
+        <v>9.253503810455415</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.05080477293112163</v>
+        <v>0.05260243773271276</v>
       </c>
       <c r="W92">
-        <v>0.1805369321885007</v>
+        <v>0.1740369321885007</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.2309307860505529</v>
+        <v>0.2391019896941489</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8811,13 +8811,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2545112508680873</v>
+        <v>0.2523025421220354</v>
       </c>
       <c r="C93">
-        <v>-36.31113326812124</v>
+        <v>-35.45028822300473</v>
       </c>
       <c r="D93">
-        <v>27.27684673187877</v>
+        <v>28.13769177699528</v>
       </c>
       <c r="E93">
         <v>63.84798000000001</v>
@@ -8844,37 +8844,37 @@
         <v>2.79</v>
       </c>
       <c r="M93">
-        <v>12.215781396</v>
+        <v>11.798312526</v>
       </c>
       <c r="N93">
-        <v>-9.425781396000001</v>
+        <v>-9.008312526000001</v>
       </c>
       <c r="O93">
-        <v>-2.07367190712</v>
+        <v>-1.98182875572</v>
       </c>
       <c r="P93">
-        <v>-7.352109488880001</v>
+        <v>-7.02648377028</v>
       </c>
       <c r="Q93">
-        <v>-7.58210948888</v>
+        <v>-7.256483770280001</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>1.001400132204852</v>
+        <v>1.04258114613761</v>
       </c>
       <c r="T93">
-        <v>10.29913225754941</v>
+        <v>10.28167090050602</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.05024647872308732</v>
+        <v>0.05202438896641921</v>
       </c>
       <c r="W93">
-        <v>0.1806431197468688</v>
+        <v>0.1741431197468688</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.2283930851049424</v>
+        <v>0.2364744953019056</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8893,13 +8893,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2562552508680873</v>
+        <v>0.2540465421220355</v>
       </c>
       <c r="C94">
-        <v>-37.21474974924884</v>
+        <v>-36.35657007293327</v>
       </c>
       <c r="D94">
-        <v>27.07901025075117</v>
+        <v>27.93718992706674</v>
       </c>
       <c r="E94">
         <v>64.55376000000001</v>
@@ -8926,37 +8926,37 @@
         <v>2.79</v>
       </c>
       <c r="M94">
-        <v>12.350020752</v>
+        <v>11.927964312</v>
       </c>
       <c r="N94">
-        <v>-9.560020752000003</v>
+        <v>-9.137964312000001</v>
       </c>
       <c r="O94">
-        <v>-2.103204565440001</v>
+        <v>-2.01035214864</v>
       </c>
       <c r="P94">
-        <v>-7.456816186560003</v>
+        <v>-7.12761216336</v>
       </c>
       <c r="Q94">
-        <v>-7.686816186560003</v>
+        <v>-7.357612163360001</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.124600148730459</v>
+        <v>1.171741289404811</v>
       </c>
       <c r="T94">
-        <v>11.58652378974308</v>
+        <v>11.56687976306927</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.04970032134566246</v>
+        <v>0.05145890647765378</v>
       </c>
       <c r="W94">
-        <v>0.180746998880055</v>
+        <v>0.174246998880055</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.2259105515711929</v>
+        <v>0.2339041203529718</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8975,13 +8975,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2579992508680873</v>
+        <v>0.2557905421220354</v>
       </c>
       <c r="C95">
-        <v>-38.11551711484985</v>
+        <v>-37.26001469248967</v>
       </c>
       <c r="D95">
-        <v>26.88402288515015</v>
+        <v>27.73952530751033</v>
       </c>
       <c r="E95">
         <v>65.25954</v>
@@ -9008,37 +9008,37 @@
         <v>2.79</v>
       </c>
       <c r="M95">
-        <v>12.484260108</v>
+        <v>12.057616098</v>
       </c>
       <c r="N95">
-        <v>-9.694260108000002</v>
+        <v>-9.267616098000001</v>
       </c>
       <c r="O95">
-        <v>-2.13273722376</v>
+        <v>-2.03887554156</v>
       </c>
       <c r="P95">
-        <v>-7.561522884240001</v>
+        <v>-7.228740556440001</v>
       </c>
       <c r="Q95">
-        <v>-7.791522884240001</v>
+        <v>-7.45874055644</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.283000169977668</v>
+        <v>1.337804330748356</v>
       </c>
       <c r="T95">
-        <v>13.2417414739921</v>
+        <v>13.21929115779346</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.04916590928818222</v>
+        <v>0.05090558490262526</v>
       </c>
       <c r="W95">
-        <v>0.1808486440533877</v>
+        <v>0.1743486440533878</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.2234814058553737</v>
+        <v>0.2313890222846602</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9057,13 +9057,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2597432508680873</v>
+        <v>0.2575345421220355</v>
       </c>
       <c r="C96">
-        <v>-39.01349647164639</v>
+        <v>-38.16068188152767</v>
       </c>
       <c r="D96">
-        <v>26.69182352835362</v>
+        <v>27.54463811847234</v>
       </c>
       <c r="E96">
         <v>65.96532000000001</v>
@@ -9090,37 +9090,37 @@
         <v>2.79</v>
       </c>
       <c r="M96">
-        <v>12.618499464</v>
+        <v>12.187267884</v>
       </c>
       <c r="N96">
-        <v>-9.828499464</v>
+        <v>-9.397267884000001</v>
       </c>
       <c r="O96">
-        <v>-2.16226988208</v>
+        <v>-2.06739893448</v>
       </c>
       <c r="P96">
-        <v>-7.66622958192</v>
+        <v>-7.329868949520002</v>
       </c>
       <c r="Q96">
-        <v>-7.89622958192</v>
+        <v>-7.559868949520002</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.49420019830728</v>
+        <v>1.559221719206416</v>
       </c>
       <c r="T96">
-        <v>15.44869838632412</v>
+        <v>15.42250635075904</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.04864286770001007</v>
+        <v>0.05036403612706541</v>
       </c>
       <c r="W96">
-        <v>0.1809481265634581</v>
+        <v>0.1744481265634581</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.2211039440909549</v>
+        <v>0.2289274369412063</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9139,13 +9139,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2614872508680873</v>
+        <v>0.2592785421220355</v>
       </c>
       <c r="C97">
-        <v>-39.90874719130715</v>
+        <v>-39.05862977110264</v>
       </c>
       <c r="D97">
-        <v>26.50235280869286</v>
+        <v>27.35247022889737</v>
       </c>
       <c r="E97">
         <v>66.67110000000001</v>
@@ -9172,37 +9172,37 @@
         <v>2.79</v>
       </c>
       <c r="M97">
-        <v>12.75273882</v>
+        <v>12.31691967</v>
       </c>
       <c r="N97">
-        <v>-9.962738820000002</v>
+        <v>-9.526919670000002</v>
       </c>
       <c r="O97">
-        <v>-2.1918025404</v>
+        <v>-2.0959223274</v>
       </c>
       <c r="P97">
-        <v>-7.770936279600002</v>
+        <v>-7.430997342600001</v>
       </c>
       <c r="Q97">
-        <v>-8.000936279600001</v>
+        <v>-7.660997342600002</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.789880237968736</v>
+        <v>1.869206063047699</v>
       </c>
       <c r="T97">
-        <v>18.53843806358895</v>
+        <v>18.50700762091085</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.04813083751369417</v>
+        <v>0.04983388837835945</v>
       </c>
       <c r="W97">
-        <v>0.1810455147048954</v>
+        <v>0.1745455147048954</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.2187765341531553</v>
+        <v>0.2265176744470885</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9221,13 +9221,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2632312508680873</v>
+        <v>0.2610225421220354</v>
       </c>
       <c r="C98">
-        <v>-40.8013269715944</v>
+        <v>-39.9539148812809</v>
       </c>
       <c r="D98">
-        <v>26.3155530284056</v>
+        <v>27.1629651187191</v>
       </c>
       <c r="E98">
         <v>67.37688</v>
@@ -9254,37 +9254,37 @@
         <v>2.79</v>
       </c>
       <c r="M98">
-        <v>12.886978176</v>
+        <v>12.446571456</v>
       </c>
       <c r="N98">
-        <v>-10.096978176</v>
+        <v>-9.656571456000002</v>
       </c>
       <c r="O98">
-        <v>-2.22133519872</v>
+        <v>-2.12444572032</v>
       </c>
       <c r="P98">
-        <v>-7.87564297728</v>
+        <v>-7.532125735680001</v>
       </c>
       <c r="Q98">
-        <v>-8.10564297728</v>
+        <v>-7.762125735680002</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.233400297460916</v>
+        <v>2.334182578809619</v>
       </c>
       <c r="T98">
-        <v>23.17304757948614</v>
+        <v>23.13375952613851</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.04762947462292652</v>
+        <v>0.04931478537441821</v>
       </c>
       <c r="W98">
-        <v>0.1811408739267194</v>
+        <v>0.1746408739267194</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.2164976119223934</v>
+        <v>0.2241581153382645</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9303,13 +9303,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2649752508680873</v>
+        <v>0.2627665421220354</v>
       </c>
       <c r="C99">
-        <v>-41.69129189494313</v>
+        <v>-40.84659217656274</v>
       </c>
       <c r="D99">
-        <v>26.13136810505687</v>
+        <v>26.97606782343727</v>
       </c>
       <c r="E99">
         <v>68.08266</v>
@@ -9336,37 +9336,37 @@
         <v>2.79</v>
       </c>
       <c r="M99">
-        <v>13.021217532</v>
+        <v>12.576223242</v>
       </c>
       <c r="N99">
-        <v>-10.231217532</v>
+        <v>-9.786223242000002</v>
       </c>
       <c r="O99">
-        <v>-2.250867857040001</v>
+        <v>-2.152969113240001</v>
       </c>
       <c r="P99">
-        <v>-7.980349674960001</v>
+        <v>-7.633254128760001</v>
       </c>
       <c r="Q99">
-        <v>-8.210349674960002</v>
+        <v>-7.863254128760001</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.972600396614554</v>
+        <v>3.109143438412825</v>
       </c>
       <c r="T99">
-        <v>30.89739677264819</v>
+        <v>30.84501270151802</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.04713844911134996</v>
+        <v>0.04880638552519741</v>
       </c>
       <c r="W99">
-        <v>0.1812342669790212</v>
+        <v>0.1747342669790212</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.2142656777788634</v>
+        <v>0.2218472069327154</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9385,13 +9385,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2667192508680873</v>
+        <v>0.2645105421220355</v>
       </c>
       <c r="C100">
-        <v>-42.57869648459718</v>
+        <v>-41.7367151190325</v>
       </c>
       <c r="D100">
-        <v>25.94974351540283</v>
+        <v>26.79172488096751</v>
       </c>
       <c r="E100">
         <v>68.78844000000001</v>
@@ -9418,37 +9418,37 @@
         <v>2.79</v>
       </c>
       <c r="M100">
-        <v>13.155456888</v>
+        <v>12.705875028</v>
       </c>
       <c r="N100">
-        <v>-10.365456888</v>
+        <v>-9.915875028000002</v>
       </c>
       <c r="O100">
-        <v>-2.28040051536</v>
+        <v>-2.181492506160001</v>
       </c>
       <c r="P100">
-        <v>-8.08505637264</v>
+        <v>-7.734382521840002</v>
       </c>
       <c r="Q100">
-        <v>-8.315056372640001</v>
+        <v>-7.964382521840001</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.451000594921831</v>
+        <v>4.659065157619238</v>
       </c>
       <c r="T100">
-        <v>46.34609515897228</v>
+        <v>46.26751905227703</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.04665744452858108</v>
+        <v>0.04830836118310355</v>
       </c>
       <c r="W100">
-        <v>0.1813257540506639</v>
+        <v>0.1748257540506639</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.2120792933117323</v>
+        <v>0.2195834599231979</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9467,13 +9467,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2684632508680873</v>
+        <v>0.2662545421220355</v>
       </c>
       <c r="C101">
-        <v>-43.46359375842063</v>
+        <v>-42.62433571934464</v>
       </c>
       <c r="D101">
-        <v>25.77062624157937</v>
+        <v>26.60988428065535</v>
       </c>
       <c r="E101">
         <v>69.49422</v>
@@ -9500,37 +9500,37 @@
         <v>2.79</v>
       </c>
       <c r="M101">
-        <v>13.289696244</v>
+        <v>12.835526814</v>
       </c>
       <c r="N101">
-        <v>-10.499696244</v>
+        <v>-10.045526814</v>
       </c>
       <c r="O101">
-        <v>-2.30993317368</v>
+        <v>-2.21001589908</v>
       </c>
       <c r="P101">
-        <v>-8.18976307032</v>
+        <v>-7.835510914919999</v>
       </c>
       <c r="Q101">
-        <v>-8.41976307032</v>
+        <v>-8.065510914919999</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.886201189843664</v>
+        <v>9.308830315238476</v>
       </c>
       <c r="T101">
-        <v>92.69219031794456</v>
+        <v>92.53503810455406</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.04618615721011057</v>
+        <v>0.04782039793882979</v>
       </c>
       <c r="W101">
-        <v>0.181415392898637</v>
+        <v>0.174915392898637</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.2099370782277754</v>
+        <v>0.2173654451764991</v>
       </c>
       <c r="Z101">
         <v>0</v>
